--- a/607.xlsx
+++ b/607.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erico\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ECC51A-EFF1-4312-8A46-4DF501B3B6D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4347FD5D-08CC-46C4-8EF5-8B887CC54E99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2784" yWindow="2832" windowWidth="7500" windowHeight="6000" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -220,11 +221,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1116,18 +1119,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A3414F-4276-4EFD-91C5-390C4822278B}">
-  <dimension ref="A2:Q30"/>
+  <dimension ref="A2:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>607</v>
       </c>
@@ -1226,19 +1229,19 @@
         <v>44311</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:P3" si="1">N3+7</f>
+        <f>N3+7</f>
         <v>44318</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" si="1"/>
+        <f>O3+7</f>
         <v>44325</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3" si="2">P3+7</f>
+        <f>P3+7</f>
         <v>44332</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>8</v>
@@ -1288,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>7</v>
@@ -1338,7 +1341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>8</v>
@@ -1388,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>8</v>
@@ -1438,7 +1441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1458,7 +1461,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1485,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -1504,7 +1507,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1526,7 +1529,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -1537,10 +1540,10 @@
       <c r="G12" s="2"/>
       <c r="H12" s="14"/>
       <c r="I12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="2"/>
@@ -1550,7 +1553,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1572,7 +1575,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1611,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1616,7 +1619,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>606</v>
       </c>
@@ -1636,7 +1639,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>7</v>
@@ -1686,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1712,13 +1715,13 @@
         <v>5</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>8</v>
@@ -1736,7 +1739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1753,10 +1756,10 @@
         <v>51</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1767,23 +1770,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f>SQRT(197)</f>
+        <v>14.035668847618199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <f>17.2/14</f>
+        <v>1.2285714285714284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>17.63805</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>16.47832</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G30">
         <f>68.44847-66.67389</f>
         <v>1.7745800000000003</v>
       </c>
       <c r="I30" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <f>4.61707 + 0.49143*6.7</f>
+        <v>7.9096510000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1911,6 +1932,28 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{6F4F884E-CCEB-41A7-B2B6-8C59B47C9DCA}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C2:Q2</xm:f>
+              <xm:sqref>S3</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1922,15 +1965,15 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="12.5546875" customWidth="1"/>
-    <col min="21" max="21" width="17.5546875" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" customWidth="1"/>
-    <col min="25" max="25" width="13.21875" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="10:16" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -1938,7 +1981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="10:16" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
         <v>30</v>
       </c>
@@ -1947,18 +1990,18 @@
         <v>32.097933333333337</v>
       </c>
     </row>
-    <row r="7" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="10:16" x14ac:dyDescent="0.25">
       <c r="P7">
         <f>30.69-(1.96*(4.31/SQRT(36)))</f>
         <v>29.282066666666669</v>
       </c>
     </row>
-    <row r="9" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="10:16" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +2009,7 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="15" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>29</v>
       </c>
@@ -1974,7 +2017,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="16" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>15</v>
       </c>
@@ -1982,7 +2025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="6:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F20">
         <f>118.2+G21</f>
         <v>120.32333333333334</v>
@@ -1992,7 +2035,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="21" spans="6:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>6.5/6</f>
         <v>1.0833333333333333</v>
@@ -2002,7 +2045,7 @@
         <v>2.1233333333333331</v>
       </c>
     </row>
-    <row r="22" spans="6:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:25" x14ac:dyDescent="0.25">
       <c r="R22" s="20" t="s">
         <v>33</v>
       </c>
@@ -2028,7 +2071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="J23">
         <f>6.5/6</f>
         <v>1.0833333333333333</v>
@@ -2058,7 +2101,7 @@
         <v>44266.36577989583</v>
       </c>
     </row>
-    <row r="24" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="R24" s="21" t="s">
         <v>44</v>
       </c>
@@ -2084,7 +2127,7 @@
         <v>44265.394097766199</v>
       </c>
     </row>
-    <row r="25" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="R25" s="21" t="s">
         <v>46</v>
       </c>
@@ -2110,7 +2153,7 @@
         <v>44266.375588425923</v>
       </c>
     </row>
-    <row r="26" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="R26" s="21" t="s">
         <v>48</v>
       </c>
@@ -2149,12 +2192,12 @@
       <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M1" s="16" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M2" s="17" t="s">
         <v>25</v>
       </c>
@@ -2182,7 +2225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M3" s="17" t="s">
         <v>25</v>
       </c>
@@ -2196,7 +2239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M4" s="17" t="s">
         <v>25</v>
       </c>
@@ -2210,7 +2253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M5" s="17" t="s">
         <v>25</v>
       </c>
@@ -2224,7 +2267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M6" s="17" t="s">
         <v>25</v>
       </c>
@@ -2238,7 +2281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M7" s="17" t="s">
         <v>25</v>
       </c>
@@ -2252,7 +2295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M8" s="17" t="s">
         <v>25</v>
       </c>
@@ -2266,7 +2309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2280,7 +2323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M10" s="17" t="s">
         <v>25</v>
       </c>
@@ -2294,7 +2337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M11" s="17" t="s">
         <v>25</v>
       </c>
@@ -2308,7 +2351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M12" s="17" t="s">
         <v>25</v>
       </c>
@@ -2322,7 +2365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M13" s="17" t="s">
         <v>25</v>
       </c>
@@ -2336,7 +2379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M14" s="17" t="s">
         <v>25</v>
       </c>
@@ -2350,7 +2393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M15" s="17" t="s">
         <v>25</v>
       </c>
@@ -2364,7 +2407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M16" s="17" t="s">
         <v>25</v>
       </c>
@@ -2378,7 +2421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M17" s="17" t="s">
         <v>25</v>
       </c>
@@ -2392,7 +2435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M18" s="17" t="s">
         <v>25</v>
       </c>
@@ -2406,7 +2449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M19" s="17" t="s">
         <v>25</v>
       </c>
@@ -2420,7 +2463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M20" s="17" t="s">
         <v>25</v>
       </c>
@@ -2434,7 +2477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M21" s="17" t="s">
         <v>25</v>
       </c>
@@ -2448,7 +2491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M22" s="17" t="s">
         <v>25</v>
       </c>
@@ -2462,7 +2505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M23" s="17" t="s">
         <v>25</v>
       </c>
@@ -2476,7 +2519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2490,7 +2533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M25" s="17" t="s">
         <v>27</v>
       </c>
@@ -2504,7 +2547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M26" s="17" t="s">
         <v>27</v>
       </c>
@@ -2518,7 +2561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M27" s="17" t="s">
         <v>27</v>
       </c>
@@ -2532,7 +2575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M28" s="17" t="s">
         <v>27</v>
       </c>
@@ -2546,7 +2589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M29" s="17" t="s">
         <v>27</v>
       </c>
@@ -2560,7 +2603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M30" s="17" t="s">
         <v>27</v>
       </c>
@@ -2574,7 +2617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M31" s="17" t="s">
         <v>27</v>
       </c>
@@ -2588,7 +2631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M32" s="17" t="s">
         <v>27</v>
       </c>
@@ -2602,7 +2645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M33" s="17" t="s">
         <v>27</v>
       </c>
@@ -2616,7 +2659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M34" s="17" t="s">
         <v>27</v>
       </c>
@@ -2630,7 +2673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M35" s="17" t="s">
         <v>27</v>
       </c>
@@ -2644,7 +2687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M36" s="17" t="s">
         <v>27</v>
       </c>
@@ -2658,7 +2701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M37" s="17" t="s">
         <v>27</v>
       </c>
@@ -2672,7 +2715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M38" s="17" t="s">
         <v>27</v>
       </c>
@@ -2686,7 +2729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M39" s="17" t="s">
         <v>27</v>
       </c>
@@ -2700,7 +2743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M40" s="17" t="s">
         <v>27</v>
       </c>
@@ -2714,7 +2757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M41" s="17" t="s">
         <v>27</v>
       </c>
@@ -2728,7 +2771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M42" s="17" t="s">
         <v>27</v>
       </c>
@@ -2742,7 +2785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M43" s="17" t="s">
         <v>27</v>
       </c>
@@ -2756,7 +2799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M44" s="17" t="s">
         <v>27</v>
       </c>
@@ -2770,7 +2813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M45" s="17" t="s">
         <v>27</v>
       </c>
@@ -2784,7 +2827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M46" s="17" t="s">
         <v>27</v>
       </c>
@@ -2798,7 +2841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M47" s="17" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +2855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M48" s="17" t="s">
         <v>27</v>
       </c>
@@ -2826,7 +2869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M49" s="17" t="s">
         <v>27</v>
       </c>
@@ -2840,7 +2883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M50" s="17" t="s">
         <v>27</v>
       </c>
@@ -2854,7 +2897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M51" s="17" t="s">
         <v>27</v>
       </c>
@@ -2868,7 +2911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M52" s="17" t="s">
         <v>27</v>
       </c>
@@ -2882,7 +2925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M53" s="17" t="s">
         <v>27</v>
       </c>
@@ -2896,7 +2939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M54" s="17" t="s">
         <v>27</v>
       </c>
@@ -2910,7 +2953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M55" s="17" t="s">
         <v>27</v>
       </c>
@@ -2924,7 +2967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M56" s="17" t="s">
         <v>27</v>
       </c>
@@ -2938,7 +2981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M57" s="17" t="s">
         <v>27</v>
       </c>
@@ -2952,7 +2995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M58" s="17" t="s">
         <v>27</v>
       </c>
@@ -2966,7 +3009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M59" s="17" t="s">
         <v>27</v>
       </c>
@@ -2980,7 +3023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M60" s="17" t="s">
         <v>27</v>
       </c>
@@ -2994,7 +3037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M61" s="17" t="s">
         <v>27</v>
       </c>
@@ -3008,7 +3051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M62" s="17" t="s">
         <v>27</v>
       </c>
@@ -3022,7 +3065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M63" s="17" t="s">
         <v>27</v>
       </c>
@@ -3036,7 +3079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M64" s="17" t="s">
         <v>27</v>
       </c>
@@ -3050,7 +3093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M65" s="17" t="s">
         <v>27</v>
       </c>
@@ -3064,7 +3107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M66" s="17" t="s">
         <v>27</v>
       </c>
@@ -3078,7 +3121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M67" s="17" t="s">
         <v>27</v>
       </c>
@@ -3092,7 +3135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M68" s="17" t="s">
         <v>27</v>
       </c>
@@ -3106,7 +3149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M69" s="17" t="s">
         <v>27</v>
       </c>
@@ -3120,7 +3163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M70" s="17" t="s">
         <v>27</v>
       </c>
@@ -3134,7 +3177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M71" s="17" t="s">
         <v>27</v>
       </c>
@@ -3148,7 +3191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M72" s="17" t="s">
         <v>27</v>
       </c>
@@ -3162,7 +3205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M73" s="17" t="s">
         <v>27</v>
       </c>
@@ -3176,7 +3219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M74" s="17" t="s">
         <v>27</v>
       </c>
@@ -3190,7 +3233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M75" s="17" t="s">
         <v>27</v>
       </c>
@@ -3204,7 +3247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M76" s="17" t="s">
         <v>27</v>
       </c>
@@ -3218,7 +3261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M77" s="17" t="s">
         <v>27</v>
       </c>
@@ -3232,7 +3275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M78" s="17" t="s">
         <v>27</v>
       </c>
@@ -3246,7 +3289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M79" s="17" t="s">
         <v>25</v>
       </c>
@@ -3260,7 +3303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M80" s="17" t="s">
         <v>27</v>
       </c>
@@ -3274,7 +3317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M81" s="17" t="s">
         <v>27</v>
       </c>
@@ -3288,7 +3331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M82" s="17" t="s">
         <v>27</v>
       </c>
@@ -3302,7 +3345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M83" s="17" t="s">
         <v>27</v>
       </c>
@@ -3316,7 +3359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M84" s="17" t="s">
         <v>27</v>
       </c>
@@ -3330,7 +3373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M85" s="17" t="s">
         <v>27</v>
       </c>
@@ -3344,7 +3387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M86" s="17" t="s">
         <v>27</v>
       </c>
@@ -3358,7 +3401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M87" s="17" t="s">
         <v>27</v>
       </c>
@@ -3372,7 +3415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M88" s="17" t="s">
         <v>27</v>
       </c>
@@ -3386,7 +3429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M89" s="17" t="s">
         <v>27</v>
       </c>
@@ -3400,7 +3443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M90" s="17" t="s">
         <v>27</v>
       </c>
@@ -3414,7 +3457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M91" s="17" t="s">
         <v>27</v>
       </c>
@@ -3428,7 +3471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M92" s="17" t="s">
         <v>27</v>
       </c>
@@ -3442,7 +3485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M93" s="17" t="s">
         <v>25</v>
       </c>
@@ -3456,7 +3499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M94" s="17" t="s">
         <v>27</v>
       </c>
@@ -3470,7 +3513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M95" s="17" t="s">
         <v>27</v>
       </c>
@@ -3484,7 +3527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M96" s="17" t="s">
         <v>27</v>
       </c>
@@ -3498,7 +3541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M97" s="17" t="s">
         <v>27</v>
       </c>
@@ -3512,7 +3555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M98" s="17" t="s">
         <v>27</v>
       </c>
@@ -3526,7 +3569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M99" s="17" t="s">
         <v>27</v>
       </c>
@@ -3540,7 +3583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M100" s="17" t="s">
         <v>27</v>
       </c>
@@ -3554,7 +3597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M101" s="17" t="s">
         <v>27</v>
       </c>
@@ -3568,7 +3611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M102" s="17" t="s">
         <v>25</v>
       </c>
@@ -3582,7 +3625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M103" s="17" t="s">
         <v>27</v>
       </c>
@@ -3596,7 +3639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M104" s="17" t="s">
         <v>27</v>
       </c>
@@ -3610,7 +3653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M105" s="17" t="s">
         <v>27</v>
       </c>
@@ -3624,7 +3667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M106" s="17" t="s">
         <v>27</v>
       </c>
@@ -3638,7 +3681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M107" s="17" t="s">
         <v>25</v>
       </c>
@@ -3652,7 +3695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M108" s="17" t="s">
         <v>25</v>
       </c>
@@ -3666,7 +3709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M109" s="17" t="s">
         <v>27</v>
       </c>
@@ -3680,7 +3723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M110" s="17" t="s">
         <v>27</v>
       </c>
@@ -3694,7 +3737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M111" s="17" t="s">
         <v>27</v>
       </c>
@@ -3708,7 +3751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M112" s="17" t="s">
         <v>27</v>
       </c>
@@ -3722,7 +3765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M113" s="17" t="s">
         <v>25</v>
       </c>
@@ -3736,7 +3779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M114" s="17" t="s">
         <v>27</v>
       </c>
@@ -3750,7 +3793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M115" s="17" t="s">
         <v>27</v>
       </c>
@@ -3764,7 +3807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M116" s="17" t="s">
         <v>27</v>
       </c>
@@ -3778,7 +3821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M117" s="17" t="s">
         <v>27</v>
       </c>
@@ -3792,7 +3835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M118" s="17" t="s">
         <v>27</v>
       </c>
@@ -3806,7 +3849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M119" s="17" t="s">
         <v>27</v>
       </c>
@@ -3820,7 +3863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M120" s="17" t="s">
         <v>27</v>
       </c>
@@ -3834,7 +3877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M121" s="17" t="s">
         <v>27</v>
       </c>
@@ -3848,7 +3891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M122" s="17" t="s">
         <v>27</v>
       </c>
@@ -3862,7 +3905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M123" s="17" t="s">
         <v>25</v>
       </c>
@@ -3876,7 +3919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M124" s="17" t="s">
         <v>25</v>
       </c>
@@ -3890,7 +3933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M125" s="17" t="s">
         <v>25</v>
       </c>
@@ -3904,7 +3947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M126" s="17" t="s">
         <v>25</v>
       </c>
@@ -3918,7 +3961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M127" s="17" t="s">
         <v>25</v>
       </c>
@@ -3932,7 +3975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M128" s="17" t="s">
         <v>25</v>
       </c>
@@ -3946,7 +3989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M129" s="17" t="s">
         <v>25</v>
       </c>
@@ -3960,7 +4003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M130" s="17" t="s">
         <v>25</v>
       </c>
@@ -3974,7 +4017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M131" s="17" t="s">
         <v>25</v>
       </c>
@@ -3988,7 +4031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M132" s="17" t="s">
         <v>25</v>
       </c>
@@ -4002,7 +4045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M133" s="17" t="s">
         <v>25</v>
       </c>
@@ -4016,7 +4059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M134" s="17" t="s">
         <v>25</v>
       </c>
@@ -4030,7 +4073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M135" s="17" t="s">
         <v>25</v>
       </c>
@@ -4044,7 +4087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M136" s="17" t="s">
         <v>25</v>
       </c>
@@ -4058,7 +4101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M137" s="17" t="s">
         <v>25</v>
       </c>
@@ -4072,7 +4115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M138" s="17" t="s">
         <v>25</v>
       </c>
@@ -4086,7 +4129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M139" s="17" t="s">
         <v>25</v>
       </c>
@@ -4100,7 +4143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M140" s="17" t="s">
         <v>25</v>
       </c>
@@ -4114,7 +4157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="17" t="s">
         <v>25</v>
       </c>
@@ -4128,7 +4171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M142" s="17" t="s">
         <v>25</v>
       </c>
@@ -4142,7 +4185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M143" s="17" t="s">
         <v>25</v>
       </c>
@@ -4156,7 +4199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M144" s="17" t="s">
         <v>25</v>
       </c>
@@ -4170,7 +4213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M145" s="17" t="s">
         <v>25</v>
       </c>
@@ -4184,7 +4227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M146" s="17" t="s">
         <v>25</v>
       </c>
@@ -4198,7 +4241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M147" s="17" t="s">
         <v>25</v>
       </c>
@@ -4212,7 +4255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M148" s="17" t="s">
         <v>25</v>
       </c>
@@ -4226,7 +4269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M149" s="17" t="s">
         <v>25</v>
       </c>
@@ -4240,7 +4283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M150" s="17" t="s">
         <v>25</v>
       </c>
@@ -4254,7 +4297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M151" s="17" t="s">
         <v>25</v>
       </c>
@@ -4268,7 +4311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M152" s="17" t="s">
         <v>25</v>
       </c>
@@ -4282,7 +4325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M153" s="17" t="s">
         <v>25</v>
       </c>
@@ -4296,7 +4339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M154" s="17" t="s">
         <v>25</v>
       </c>
@@ -4310,7 +4353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M155" s="17" t="s">
         <v>25</v>
       </c>
@@ -4324,7 +4367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="17" t="s">
         <v>25</v>
       </c>
@@ -4338,7 +4381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M157" s="17" t="s">
         <v>25</v>
       </c>
@@ -4352,7 +4395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M158" s="17" t="s">
         <v>25</v>
       </c>
@@ -4366,7 +4409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M159" s="17" t="s">
         <v>25</v>
       </c>
@@ -4380,7 +4423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M160" s="17" t="s">
         <v>25</v>
       </c>
@@ -4394,7 +4437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M161" s="17" t="s">
         <v>25</v>
       </c>
@@ -4408,7 +4451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M162" s="17" t="s">
         <v>25</v>
       </c>
@@ -4422,7 +4465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M163" s="17" t="s">
         <v>25</v>
       </c>
@@ -4436,7 +4479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M164" s="17" t="s">
         <v>25</v>
       </c>
@@ -4450,7 +4493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M165" s="17" t="s">
         <v>25</v>
       </c>
@@ -4464,7 +4507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M166" s="17" t="s">
         <v>25</v>
       </c>
@@ -4478,7 +4521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M167" s="17" t="s">
         <v>25</v>
       </c>
@@ -4492,7 +4535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M168" s="17" t="s">
         <v>25</v>
       </c>
@@ -4506,7 +4549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M169" s="17" t="s">
         <v>25</v>
       </c>
@@ -4520,7 +4563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M170" s="17" t="s">
         <v>25</v>
       </c>
@@ -4534,7 +4577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="17" t="s">
         <v>25</v>
       </c>
@@ -4548,7 +4591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M172" s="17" t="s">
         <v>25</v>
       </c>
@@ -4562,7 +4605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M173" s="17" t="s">
         <v>25</v>
       </c>
@@ -4576,7 +4619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M174" s="17" t="s">
         <v>25</v>
       </c>
@@ -4590,7 +4633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M175" s="17" t="s">
         <v>25</v>
       </c>
@@ -4604,7 +4647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M176" s="17" t="s">
         <v>25</v>
       </c>
@@ -4618,7 +4661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M177" s="17" t="s">
         <v>25</v>
       </c>
@@ -4632,7 +4675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M178" s="17" t="s">
         <v>25</v>
       </c>
@@ -4646,7 +4689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M179" s="17" t="s">
         <v>25</v>
       </c>
@@ -4660,7 +4703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M180" s="17" t="s">
         <v>25</v>
       </c>
@@ -4674,7 +4717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M181" s="17" t="s">
         <v>25</v>
       </c>
@@ -4688,7 +4731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M182" s="17" t="s">
         <v>25</v>
       </c>
@@ -4702,7 +4745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M183" s="17" t="s">
         <v>25</v>
       </c>
@@ -4716,7 +4759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M184" s="17" t="s">
         <v>25</v>
       </c>
@@ -4730,7 +4773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M185" s="17" t="s">
         <v>25</v>
       </c>
@@ -4744,7 +4787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M186" s="17" t="s">
         <v>25</v>
       </c>
@@ -4758,7 +4801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="187" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M187" s="17" t="s">
         <v>25</v>
       </c>
@@ -4772,7 +4815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M188" s="17" t="s">
         <v>25</v>
       </c>
@@ -4786,7 +4829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="17" t="s">
         <v>25</v>
       </c>
@@ -4800,7 +4843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="190" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M190" s="17" t="s">
         <v>25</v>
       </c>
@@ -4814,7 +4857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M191" s="17" t="s">
         <v>25</v>
       </c>
@@ -4828,7 +4871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M192" s="17" t="s">
         <v>25</v>
       </c>
@@ -4842,7 +4885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M193" s="17" t="s">
         <v>25</v>
       </c>
@@ -4856,7 +4899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M194" s="17" t="s">
         <v>25</v>
       </c>
@@ -4870,7 +4913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M195" s="17" t="s">
         <v>25</v>
       </c>
@@ -4884,7 +4927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="196" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M196" s="17" t="s">
         <v>25</v>
       </c>
@@ -4898,7 +4941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M197" s="17" t="s">
         <v>25</v>
       </c>
@@ -4912,7 +4955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M198" s="17" t="s">
         <v>25</v>
       </c>
@@ -4926,7 +4969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M199" s="17" t="s">
         <v>25</v>
       </c>
@@ -4940,7 +4983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M200" s="17" t="s">
         <v>25</v>
       </c>
@@ -4954,7 +4997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="201" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M201" s="17" t="s">
         <v>25</v>
       </c>
@@ -4968,7 +5011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M202" s="17" t="s">
         <v>25</v>
       </c>
@@ -4982,7 +5025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M203" s="17" t="s">
         <v>25</v>
       </c>
@@ -4996,7 +5039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M204" s="17" t="s">
         <v>25</v>
       </c>
@@ -5010,7 +5053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="205" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M205" s="17" t="s">
         <v>25</v>
       </c>
@@ -5024,7 +5067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="206" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M206" s="17" t="s">
         <v>25</v>
       </c>
@@ -5038,7 +5081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M207" s="17" t="s">
         <v>25</v>
       </c>
@@ -5052,7 +5095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M208" s="17" t="s">
         <v>25</v>
       </c>
@@ -5066,7 +5109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="209" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M209" s="17" t="s">
         <v>25</v>
       </c>
@@ -5080,7 +5123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M210" s="17" t="s">
         <v>25</v>
       </c>
@@ -5094,7 +5137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M211" s="17" t="s">
         <v>25</v>
       </c>
@@ -5108,7 +5151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M212" s="17" t="s">
         <v>25</v>
       </c>
@@ -5122,7 +5165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M213" s="17" t="s">
         <v>25</v>
       </c>
@@ -5136,7 +5179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="13:16" x14ac:dyDescent="0.25">
       <c r="N214">
         <f>SUM(N2:N213)</f>
         <v>12889</v>
@@ -5155,12 +5198,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D1">
         <f>0.8^10</f>
         <v>0.10737418240000011</v>
@@ -5170,19 +5213,19 @@
         <v>0.10737418240000006</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O9">
         <f>9*8*7*6*5*4*3</f>
         <v>181440</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O10">
         <f>O9*7*6*5*4*3*2*1</f>
         <v>914457600</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>15</v>
       </c>
@@ -5190,7 +5233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>16</v>
       </c>

--- a/607.xlsx
+++ b/607.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4347FD5D-08CC-46C4-8EF5-8B887CC54E99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330C6E4-9276-4292-91E3-1196B1D630F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="55">
   <si>
     <t>Discussion</t>
   </si>
@@ -97,12 +96,6 @@
     <t>chap 5</t>
   </si>
   <si>
-    <t>Big project due at some point</t>
-  </si>
-  <si>
-    <t>project?</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -200,6 +193,15 @@
   </si>
   <si>
     <t xml:space="preserve">ci = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lab 9 </t>
+  </si>
+  <si>
+    <t>5/19/21</t>
   </si>
 </sst>
 </file>
@@ -468,7 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -507,13 +509,14 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet3" xfId="1" xr:uid="{CB047CB3-DC50-490C-A12E-59BDD7AC53AE}"/>
     <cellStyle name="Normal_Sheet4" xfId="2" xr:uid="{0DDC593B-09B0-4CEF-B1AE-FC1F012F3288}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill>
@@ -526,6 +529,112 @@
         <patternFill>
           <bgColor rgb="FF98EAFA"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0BEFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF98EAFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0BEFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF98EAFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -760,32 +869,6 @@
             <color theme="4"/>
           </stop>
         </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDC3B1"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1119,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A3414F-4276-4EFD-91C5-390C4822278B}">
-  <dimension ref="A2:Q32"/>
+  <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1213,7 @@
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
@@ -1155,14 +1238,11 @@
       <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -1177,7 +1257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>607</v>
       </c>
@@ -1240,8 +1320,11 @@
         <f>P3+7</f>
         <v>44332</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1288,10 +1371,10 @@
         <v>8</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1338,10 +1421,10 @@
         <v>8</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1373,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>7</v>
@@ -1388,10 +1471,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1432,16 +1515,16 @@
         <v>8</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1544,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -1475,7 +1558,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
       <c r="L9" s="15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="15" t="s">
@@ -1485,7 +1568,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -1507,7 +1590,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1529,7 +1612,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -1543,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="2"/>
@@ -1553,7 +1636,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1575,7 +1658,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1591,13 +1674,18 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1619,7 +1707,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>606</v>
       </c>
@@ -1671,22 +1759,22 @@
         <v>7</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1721,22 +1809,22 @@
         <v>7</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1750,24 +1838,31 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="12" t="s">
+      <c r="M19" s="23" t="s">
         <v>52</v>
       </c>
+      <c r="P19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N20" t="s">
-        <v>20</v>
+      <c r="Q20" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1798,7 +1893,7 @@
         <v>1.7745800000000003</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -1808,121 +1903,140 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:N18 E7:Q7 E17:Q17 F18:Q18 L19:L20">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+  <conditionalFormatting sqref="C4:N18 E7:Q7 E17:Q17 F18:Q18 L19:L20 M19 Q18:Q20">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="33" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E8 E4:N5 E7:Q7">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:N8">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:N7">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O18">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O7">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P18">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P5">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P7">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q18">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="Q4:Q20">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q5">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q7">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:Q18 L19:L20">
+  <conditionalFormatting sqref="C4:Q18 L19:L20 M19 Q18:Q20">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"ip"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"due"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"sub"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ip"</formula>
     </cfRule>
@@ -1975,15 +2089,15 @@
   <sheetData>
     <row r="5" spans="10:16" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="10:16" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6">
         <f>30.69+(1.96*(4.31/SQRT(36)))</f>
@@ -1998,12 +2112,12 @@
     </row>
     <row r="9" spans="10:16" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>30.69</v>
@@ -2011,7 +2125,7 @@
     </row>
     <row r="15" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>4.3099999999999996</v>
@@ -2047,28 +2161,28 @@
     </row>
     <row r="22" spans="6:25" x14ac:dyDescent="0.25">
       <c r="R22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="U22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="W22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="U22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="V22" s="20" t="s">
+      <c r="X22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="W22" s="20" t="s">
+      <c r="Y22" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="X22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y22" s="20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="6:25" ht="45" x14ac:dyDescent="0.25">
@@ -2077,10 +2191,10 @@
         <v>1.0833333333333333</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T23" s="22">
         <v>20641</v>
@@ -2089,13 +2203,13 @@
         <v>44265</v>
       </c>
       <c r="V23" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W23" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y23" s="22">
         <v>44266.36577989583</v>
@@ -2103,10 +2217,10 @@
     </row>
     <row r="24" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="R24" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T24" s="22">
         <v>20704</v>
@@ -2115,13 +2229,13 @@
         <v>44253</v>
       </c>
       <c r="V24" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W24" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y24" s="22">
         <v>44265.394097766199</v>
@@ -2129,10 +2243,10 @@
     </row>
     <row r="25" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="R25" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T25" s="22">
         <v>34493</v>
@@ -2141,13 +2255,13 @@
         <v>44265</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W25" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y25" s="22">
         <v>44266.375588425923</v>
@@ -2155,10 +2269,10 @@
     </row>
     <row r="26" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="R26" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T26" s="22">
         <v>14407</v>
@@ -2167,13 +2281,13 @@
         <v>44236</v>
       </c>
       <c r="V26" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W26" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X26" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y26" s="22">
         <v>44245.487470833337</v>
@@ -2199,21 +2313,21 @@
   <sheetData>
     <row r="1" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M2" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N2" s="18">
         <v>1</v>
@@ -2222,12 +2336,12 @@
         <v>44265</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M3" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N3" s="18">
         <v>60</v>
@@ -2236,12 +2350,12 @@
         <v>44265</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M4" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N4" s="18">
         <v>60</v>
@@ -2250,12 +2364,12 @@
         <v>44265</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M5" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N5" s="18">
         <v>72</v>
@@ -2264,12 +2378,12 @@
         <v>44265</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M6" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N6" s="18">
         <v>72</v>
@@ -2278,12 +2392,12 @@
         <v>44265</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N7" s="18">
         <v>72</v>
@@ -2292,12 +2406,12 @@
         <v>44265</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M8" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N8" s="18">
         <v>72</v>
@@ -2306,12 +2420,12 @@
         <v>44265</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M9" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N9" s="18">
         <v>72</v>
@@ -2320,12 +2434,12 @@
         <v>44265</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M10" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N10" s="18">
         <v>72</v>
@@ -2334,12 +2448,12 @@
         <v>44265</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M11" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N11" s="18">
         <v>72</v>
@@ -2348,12 +2462,12 @@
         <v>44265</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M12" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N12" s="18">
         <v>72</v>
@@ -2362,12 +2476,12 @@
         <v>44265</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M13" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N13" s="18">
         <v>72</v>
@@ -2376,12 +2490,12 @@
         <v>44265</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M14" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N14" s="18">
         <v>72</v>
@@ -2390,12 +2504,12 @@
         <v>44265</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M15" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N15" s="18">
         <v>72</v>
@@ -2404,12 +2518,12 @@
         <v>44265</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M16" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N16" s="18">
         <v>72</v>
@@ -2418,12 +2532,12 @@
         <v>44265</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M17" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N17" s="18">
         <v>72</v>
@@ -2432,12 +2546,12 @@
         <v>44265</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M18" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N18" s="18">
         <v>72</v>
@@ -2446,12 +2560,12 @@
         <v>44265</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M19" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N19" s="18">
         <v>72</v>
@@ -2460,12 +2574,12 @@
         <v>44265</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M20" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N20" s="18">
         <v>72</v>
@@ -2474,12 +2588,12 @@
         <v>44265</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M21" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N21" s="18">
         <v>72</v>
@@ -2488,12 +2602,12 @@
         <v>44265</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M22" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N22" s="18">
         <v>72</v>
@@ -2502,12 +2616,12 @@
         <v>44265</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M23" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N23" s="18">
         <v>72</v>
@@ -2516,12 +2630,12 @@
         <v>44265</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M24" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N24" s="18">
         <v>48</v>
@@ -2530,12 +2644,12 @@
         <v>44265</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M25" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N25" s="18">
         <v>48</v>
@@ -2544,12 +2658,12 @@
         <v>44265</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M26" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N26" s="18">
         <v>48</v>
@@ -2558,12 +2672,12 @@
         <v>44265</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M27" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N27" s="18">
         <v>48</v>
@@ -2572,12 +2686,12 @@
         <v>44265</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M28" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N28" s="18">
         <v>48</v>
@@ -2586,12 +2700,12 @@
         <v>44265</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M29" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N29" s="18">
         <v>48</v>
@@ -2600,12 +2714,12 @@
         <v>44265</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M30" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N30" s="18">
         <v>48</v>
@@ -2614,12 +2728,12 @@
         <v>44265</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M31" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N31" s="18">
         <v>48</v>
@@ -2628,12 +2742,12 @@
         <v>44265</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M32" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N32" s="18">
         <v>48</v>
@@ -2642,12 +2756,12 @@
         <v>44265</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M33" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N33" s="18">
         <v>48</v>
@@ -2656,12 +2770,12 @@
         <v>44265</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M34" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N34" s="18">
         <v>48</v>
@@ -2670,12 +2784,12 @@
         <v>44265</v>
       </c>
       <c r="P34" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M35" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N35" s="18">
         <v>48</v>
@@ -2684,12 +2798,12 @@
         <v>44265</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M36" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N36" s="18">
         <v>48</v>
@@ -2698,12 +2812,12 @@
         <v>44265</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M37" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N37" s="18">
         <v>48</v>
@@ -2712,12 +2826,12 @@
         <v>44265</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M38" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N38" s="18">
         <v>48</v>
@@ -2726,12 +2840,12 @@
         <v>44265</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M39" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N39" s="18">
         <v>48</v>
@@ -2740,12 +2854,12 @@
         <v>44265</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M40" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N40" s="18">
         <v>48</v>
@@ -2754,12 +2868,12 @@
         <v>44265</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M41" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N41" s="18">
         <v>48</v>
@@ -2768,12 +2882,12 @@
         <v>44265</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M42" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N42" s="18">
         <v>48</v>
@@ -2782,12 +2896,12 @@
         <v>44265</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M43" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N43" s="18">
         <v>48</v>
@@ -2796,12 +2910,12 @@
         <v>44265</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M44" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N44" s="18">
         <v>48</v>
@@ -2810,12 +2924,12 @@
         <v>44265</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M45" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N45" s="18">
         <v>48</v>
@@ -2824,12 +2938,12 @@
         <v>44265</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M46" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N46" s="18">
         <v>48</v>
@@ -2838,12 +2952,12 @@
         <v>44265</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M47" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N47" s="18">
         <v>48</v>
@@ -2852,12 +2966,12 @@
         <v>44265</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M48" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N48" s="18">
         <v>48</v>
@@ -2866,12 +2980,12 @@
         <v>44265</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M49" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N49" s="18">
         <v>48</v>
@@ -2880,12 +2994,12 @@
         <v>44265</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M50" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N50" s="18">
         <v>48</v>
@@ -2894,12 +3008,12 @@
         <v>44265</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M51" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N51" s="18">
         <v>48</v>
@@ -2908,12 +3022,12 @@
         <v>44265</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M52" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N52" s="18">
         <v>48</v>
@@ -2922,12 +3036,12 @@
         <v>44265</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M53" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N53" s="18">
         <v>48</v>
@@ -2936,12 +3050,12 @@
         <v>44265</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M54" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N54" s="18">
         <v>48</v>
@@ -2950,12 +3064,12 @@
         <v>44265</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M55" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N55" s="18">
         <v>48</v>
@@ -2964,12 +3078,12 @@
         <v>44265</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M56" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N56" s="18">
         <v>48</v>
@@ -2978,12 +3092,12 @@
         <v>44265</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M57" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N57" s="18">
         <v>48</v>
@@ -2992,12 +3106,12 @@
         <v>44265</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M58" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N58" s="18">
         <v>48</v>
@@ -3006,12 +3120,12 @@
         <v>44265</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M59" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N59" s="18">
         <v>48</v>
@@ -3020,12 +3134,12 @@
         <v>44265</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M60" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N60" s="18">
         <v>48</v>
@@ -3034,12 +3148,12 @@
         <v>44265</v>
       </c>
       <c r="P60" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M61" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N61" s="18">
         <v>48</v>
@@ -3048,12 +3162,12 @@
         <v>44265</v>
       </c>
       <c r="P61" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M62" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N62" s="18">
         <v>48</v>
@@ -3062,12 +3176,12 @@
         <v>44265</v>
       </c>
       <c r="P62" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M63" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N63" s="18">
         <v>48</v>
@@ -3076,12 +3190,12 @@
         <v>44265</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M64" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N64" s="18">
         <v>48</v>
@@ -3090,12 +3204,12 @@
         <v>44265</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M65" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N65" s="18">
         <v>48</v>
@@ -3104,12 +3218,12 @@
         <v>44265</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M66" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N66" s="18">
         <v>48</v>
@@ -3118,12 +3232,12 @@
         <v>44265</v>
       </c>
       <c r="P66" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M67" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N67" s="18">
         <v>48</v>
@@ -3132,12 +3246,12 @@
         <v>44265</v>
       </c>
       <c r="P67" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M68" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N68" s="18">
         <v>48</v>
@@ -3146,12 +3260,12 @@
         <v>44265</v>
       </c>
       <c r="P68" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M69" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N69" s="18">
         <v>48</v>
@@ -3160,12 +3274,12 @@
         <v>44265</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M70" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N70" s="18">
         <v>48</v>
@@ -3174,12 +3288,12 @@
         <v>44265</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M71" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N71" s="18">
         <v>48</v>
@@ -3188,12 +3302,12 @@
         <v>44265</v>
       </c>
       <c r="P71" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M72" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N72" s="18">
         <v>48</v>
@@ -3202,12 +3316,12 @@
         <v>44265</v>
       </c>
       <c r="P72" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M73" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N73" s="18">
         <v>48</v>
@@ -3216,12 +3330,12 @@
         <v>44265</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M74" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N74" s="18">
         <v>48</v>
@@ -3230,12 +3344,12 @@
         <v>44265</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M75" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N75" s="18">
         <v>48</v>
@@ -3244,12 +3358,12 @@
         <v>44265</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M76" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N76" s="18">
         <v>48</v>
@@ -3258,12 +3372,12 @@
         <v>44265</v>
       </c>
       <c r="P76" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M77" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N77" s="18">
         <v>48</v>
@@ -3272,12 +3386,12 @@
         <v>44265</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M78" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N78" s="18">
         <v>48</v>
@@ -3286,12 +3400,12 @@
         <v>44265</v>
       </c>
       <c r="P78" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M79" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N79" s="18">
         <v>48</v>
@@ -3300,12 +3414,12 @@
         <v>44265</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M80" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N80" s="18">
         <v>48</v>
@@ -3314,12 +3428,12 @@
         <v>44265</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M81" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N81" s="18">
         <v>48</v>
@@ -3328,12 +3442,12 @@
         <v>44265</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M82" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N82" s="18">
         <v>48</v>
@@ -3342,12 +3456,12 @@
         <v>44265</v>
       </c>
       <c r="P82" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M83" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N83" s="18">
         <v>48</v>
@@ -3356,12 +3470,12 @@
         <v>44265</v>
       </c>
       <c r="P83" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M84" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N84" s="18">
         <v>48</v>
@@ -3370,12 +3484,12 @@
         <v>44265</v>
       </c>
       <c r="P84" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M85" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N85" s="18">
         <v>48</v>
@@ -3384,12 +3498,12 @@
         <v>44265</v>
       </c>
       <c r="P85" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M86" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N86" s="18">
         <v>48</v>
@@ -3398,12 +3512,12 @@
         <v>44265</v>
       </c>
       <c r="P86" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M87" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N87" s="18">
         <v>48</v>
@@ -3412,12 +3526,12 @@
         <v>44265</v>
       </c>
       <c r="P87" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M88" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N88" s="18">
         <v>48</v>
@@ -3426,12 +3540,12 @@
         <v>44265</v>
       </c>
       <c r="P88" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M89" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N89" s="18">
         <v>48</v>
@@ -3440,12 +3554,12 @@
         <v>44265</v>
       </c>
       <c r="P89" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M90" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N90" s="18">
         <v>48</v>
@@ -3454,12 +3568,12 @@
         <v>44265</v>
       </c>
       <c r="P90" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M91" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N91" s="18">
         <v>48</v>
@@ -3468,12 +3582,12 @@
         <v>44265</v>
       </c>
       <c r="P91" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M92" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N92" s="18">
         <v>48</v>
@@ -3482,12 +3596,12 @@
         <v>44265</v>
       </c>
       <c r="P92" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M93" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N93" s="18">
         <v>72</v>
@@ -3496,12 +3610,12 @@
         <v>44265</v>
       </c>
       <c r="P93" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M94" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N94" s="18">
         <v>48</v>
@@ -3510,12 +3624,12 @@
         <v>44265</v>
       </c>
       <c r="P94" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M95" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N95" s="18">
         <v>48</v>
@@ -3524,12 +3638,12 @@
         <v>44265</v>
       </c>
       <c r="P95" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M96" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N96" s="18">
         <v>48</v>
@@ -3538,12 +3652,12 @@
         <v>44265</v>
       </c>
       <c r="P96" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M97" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N97" s="18">
         <v>48</v>
@@ -3552,12 +3666,12 @@
         <v>44265</v>
       </c>
       <c r="P97" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M98" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N98" s="18">
         <v>48</v>
@@ -3566,12 +3680,12 @@
         <v>44265</v>
       </c>
       <c r="P98" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M99" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N99" s="18">
         <v>48</v>
@@ -3580,12 +3694,12 @@
         <v>44265</v>
       </c>
       <c r="P99" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M100" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N100" s="18">
         <v>48</v>
@@ -3594,12 +3708,12 @@
         <v>44265</v>
       </c>
       <c r="P100" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M101" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N101" s="18">
         <v>48</v>
@@ -3608,12 +3722,12 @@
         <v>44265</v>
       </c>
       <c r="P101" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M102" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N102" s="18">
         <v>72</v>
@@ -3622,12 +3736,12 @@
         <v>44265</v>
       </c>
       <c r="P102" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M103" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N103" s="18">
         <v>48</v>
@@ -3636,12 +3750,12 @@
         <v>44265</v>
       </c>
       <c r="P103" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M104" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N104" s="18">
         <v>48</v>
@@ -3650,12 +3764,12 @@
         <v>44265</v>
       </c>
       <c r="P104" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M105" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N105" s="18">
         <v>48</v>
@@ -3664,12 +3778,12 @@
         <v>44265</v>
       </c>
       <c r="P105" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M106" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N106" s="18">
         <v>48</v>
@@ -3678,12 +3792,12 @@
         <v>44265</v>
       </c>
       <c r="P106" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M107" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N107" s="18">
         <v>48</v>
@@ -3692,12 +3806,12 @@
         <v>44265</v>
       </c>
       <c r="P107" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M108" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N108" s="18">
         <v>72</v>
@@ -3706,12 +3820,12 @@
         <v>44265</v>
       </c>
       <c r="P108" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M109" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N109" s="18">
         <v>48</v>
@@ -3720,12 +3834,12 @@
         <v>44265</v>
       </c>
       <c r="P109" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M110" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N110" s="18">
         <v>48</v>
@@ -3734,12 +3848,12 @@
         <v>44265</v>
       </c>
       <c r="P110" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M111" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N111" s="18">
         <v>48</v>
@@ -3748,12 +3862,12 @@
         <v>44265</v>
       </c>
       <c r="P111" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M112" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N112" s="18">
         <v>48</v>
@@ -3762,12 +3876,12 @@
         <v>44265</v>
       </c>
       <c r="P112" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M113" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N113" s="18">
         <v>72</v>
@@ -3776,12 +3890,12 @@
         <v>44265</v>
       </c>
       <c r="P113" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M114" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N114" s="18">
         <v>48</v>
@@ -3790,12 +3904,12 @@
         <v>44265</v>
       </c>
       <c r="P114" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M115" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N115" s="18">
         <v>48</v>
@@ -3804,12 +3918,12 @@
         <v>44265</v>
       </c>
       <c r="P115" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M116" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N116" s="18">
         <v>48</v>
@@ -3818,12 +3932,12 @@
         <v>44265</v>
       </c>
       <c r="P116" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M117" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N117" s="18">
         <v>48</v>
@@ -3832,12 +3946,12 @@
         <v>44265</v>
       </c>
       <c r="P117" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M118" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N118" s="18">
         <v>48</v>
@@ -3846,12 +3960,12 @@
         <v>44265</v>
       </c>
       <c r="P118" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M119" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N119" s="18">
         <v>48</v>
@@ -3860,12 +3974,12 @@
         <v>44265</v>
       </c>
       <c r="P119" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M120" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N120" s="18">
         <v>48</v>
@@ -3874,12 +3988,12 @@
         <v>44265</v>
       </c>
       <c r="P120" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M121" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N121" s="18">
         <v>48</v>
@@ -3888,12 +4002,12 @@
         <v>44265</v>
       </c>
       <c r="P121" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M122" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N122" s="18">
         <v>48</v>
@@ -3902,12 +4016,12 @@
         <v>44265</v>
       </c>
       <c r="P122" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M123" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N123" s="18">
         <v>72</v>
@@ -3916,12 +4030,12 @@
         <v>44265</v>
       </c>
       <c r="P123" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M124" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N124" s="18">
         <v>72</v>
@@ -3930,12 +4044,12 @@
         <v>44265</v>
       </c>
       <c r="P124" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M125" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N125" s="18">
         <v>72</v>
@@ -3944,12 +4058,12 @@
         <v>44265</v>
       </c>
       <c r="P125" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M126" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N126" s="18">
         <v>72</v>
@@ -3958,12 +4072,12 @@
         <v>44265</v>
       </c>
       <c r="P126" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M127" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N127" s="18">
         <v>72</v>
@@ -3972,12 +4086,12 @@
         <v>44265</v>
       </c>
       <c r="P127" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M128" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N128" s="18">
         <v>72</v>
@@ -3986,12 +4100,12 @@
         <v>44265</v>
       </c>
       <c r="P128" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M129" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N129" s="18">
         <v>72</v>
@@ -4000,12 +4114,12 @@
         <v>44265</v>
       </c>
       <c r="P129" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M130" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N130" s="18">
         <v>72</v>
@@ -4014,12 +4128,12 @@
         <v>44265</v>
       </c>
       <c r="P130" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M131" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N131" s="18">
         <v>72</v>
@@ -4028,12 +4142,12 @@
         <v>44265</v>
       </c>
       <c r="P131" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M132" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N132" s="18">
         <v>72</v>
@@ -4042,12 +4156,12 @@
         <v>44265</v>
       </c>
       <c r="P132" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M133" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N133" s="18">
         <v>72</v>
@@ -4056,12 +4170,12 @@
         <v>44265</v>
       </c>
       <c r="P133" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M134" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N134" s="18">
         <v>72</v>
@@ -4070,12 +4184,12 @@
         <v>44265</v>
       </c>
       <c r="P134" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M135" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N135" s="18">
         <v>72</v>
@@ -4084,12 +4198,12 @@
         <v>44265</v>
       </c>
       <c r="P135" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M136" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N136" s="18">
         <v>72</v>
@@ -4098,12 +4212,12 @@
         <v>44265</v>
       </c>
       <c r="P136" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M137" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N137" s="18">
         <v>72</v>
@@ -4112,12 +4226,12 @@
         <v>44265</v>
       </c>
       <c r="P137" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M138" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N138" s="18">
         <v>72</v>
@@ -4126,12 +4240,12 @@
         <v>44265</v>
       </c>
       <c r="P138" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M139" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N139" s="18">
         <v>72</v>
@@ -4140,12 +4254,12 @@
         <v>44265</v>
       </c>
       <c r="P139" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M140" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N140" s="18">
         <v>72</v>
@@ -4154,12 +4268,12 @@
         <v>44265</v>
       </c>
       <c r="P140" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N141" s="18">
         <v>72</v>
@@ -4168,12 +4282,12 @@
         <v>44265</v>
       </c>
       <c r="P141" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M142" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N142" s="18">
         <v>72</v>
@@ -4182,12 +4296,12 @@
         <v>44265</v>
       </c>
       <c r="P142" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M143" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N143" s="18">
         <v>72</v>
@@ -4196,12 +4310,12 @@
         <v>44265</v>
       </c>
       <c r="P143" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M144" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N144" s="18">
         <v>72</v>
@@ -4210,12 +4324,12 @@
         <v>44265</v>
       </c>
       <c r="P144" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M145" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N145" s="18">
         <v>72</v>
@@ -4224,12 +4338,12 @@
         <v>44265</v>
       </c>
       <c r="P145" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M146" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N146" s="18">
         <v>72</v>
@@ -4238,12 +4352,12 @@
         <v>44265</v>
       </c>
       <c r="P146" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M147" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N147" s="18">
         <v>72</v>
@@ -4252,12 +4366,12 @@
         <v>44265</v>
       </c>
       <c r="P147" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M148" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N148" s="18">
         <v>72</v>
@@ -4266,12 +4380,12 @@
         <v>44265</v>
       </c>
       <c r="P148" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M149" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N149" s="18">
         <v>72</v>
@@ -4280,12 +4394,12 @@
         <v>44265</v>
       </c>
       <c r="P149" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M150" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N150" s="18">
         <v>72</v>
@@ -4294,12 +4408,12 @@
         <v>44265</v>
       </c>
       <c r="P150" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M151" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N151" s="18">
         <v>72</v>
@@ -4308,12 +4422,12 @@
         <v>44265</v>
       </c>
       <c r="P151" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M152" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N152" s="18">
         <v>72</v>
@@ -4322,12 +4436,12 @@
         <v>44265</v>
       </c>
       <c r="P152" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M153" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N153" s="18">
         <v>72</v>
@@ -4336,12 +4450,12 @@
         <v>44265</v>
       </c>
       <c r="P153" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M154" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N154" s="18">
         <v>72</v>
@@ -4350,12 +4464,12 @@
         <v>44265</v>
       </c>
       <c r="P154" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M155" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N155" s="18">
         <v>72</v>
@@ -4364,12 +4478,12 @@
         <v>44265</v>
       </c>
       <c r="P155" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N156" s="18">
         <v>72</v>
@@ -4378,12 +4492,12 @@
         <v>44265</v>
       </c>
       <c r="P156" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M157" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N157" s="18">
         <v>72</v>
@@ -4392,12 +4506,12 @@
         <v>44265</v>
       </c>
       <c r="P157" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M158" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N158" s="18">
         <v>72</v>
@@ -4406,12 +4520,12 @@
         <v>44265</v>
       </c>
       <c r="P158" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M159" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N159" s="18">
         <v>72</v>
@@ -4420,12 +4534,12 @@
         <v>44265</v>
       </c>
       <c r="P159" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M160" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N160" s="18">
         <v>72</v>
@@ -4434,12 +4548,12 @@
         <v>44265</v>
       </c>
       <c r="P160" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M161" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N161" s="18">
         <v>72</v>
@@ -4448,12 +4562,12 @@
         <v>44265</v>
       </c>
       <c r="P161" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M162" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N162" s="18">
         <v>72</v>
@@ -4462,12 +4576,12 @@
         <v>44265</v>
       </c>
       <c r="P162" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M163" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N163" s="18">
         <v>72</v>
@@ -4476,12 +4590,12 @@
         <v>44265</v>
       </c>
       <c r="P163" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M164" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N164" s="18">
         <v>72</v>
@@ -4490,12 +4604,12 @@
         <v>44265</v>
       </c>
       <c r="P164" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M165" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N165" s="18">
         <v>72</v>
@@ -4504,12 +4618,12 @@
         <v>44265</v>
       </c>
       <c r="P165" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M166" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N166" s="18">
         <v>72</v>
@@ -4518,12 +4632,12 @@
         <v>44265</v>
       </c>
       <c r="P166" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M167" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N167" s="18">
         <v>72</v>
@@ -4532,12 +4646,12 @@
         <v>44265</v>
       </c>
       <c r="P167" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M168" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N168" s="18">
         <v>72</v>
@@ -4546,12 +4660,12 @@
         <v>44265</v>
       </c>
       <c r="P168" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M169" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N169" s="18">
         <v>72</v>
@@ -4560,12 +4674,12 @@
         <v>44265</v>
       </c>
       <c r="P169" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M170" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N170" s="18">
         <v>72</v>
@@ -4574,12 +4688,12 @@
         <v>44265</v>
       </c>
       <c r="P170" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N171" s="18">
         <v>72</v>
@@ -4588,12 +4702,12 @@
         <v>44265</v>
       </c>
       <c r="P171" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M172" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N172" s="18">
         <v>72</v>
@@ -4602,12 +4716,12 @@
         <v>44265</v>
       </c>
       <c r="P172" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M173" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N173" s="18">
         <v>72</v>
@@ -4616,12 +4730,12 @@
         <v>44265</v>
       </c>
       <c r="P173" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M174" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N174" s="18">
         <v>72</v>
@@ -4630,12 +4744,12 @@
         <v>44265</v>
       </c>
       <c r="P174" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M175" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N175" s="18">
         <v>72</v>
@@ -4644,12 +4758,12 @@
         <v>44265</v>
       </c>
       <c r="P175" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M176" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N176" s="18">
         <v>72</v>
@@ -4658,12 +4772,12 @@
         <v>44265</v>
       </c>
       <c r="P176" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M177" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N177" s="18">
         <v>72</v>
@@ -4672,12 +4786,12 @@
         <v>44265</v>
       </c>
       <c r="P177" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M178" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N178" s="18">
         <v>72</v>
@@ -4686,12 +4800,12 @@
         <v>44265</v>
       </c>
       <c r="P178" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M179" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N179" s="18">
         <v>72</v>
@@ -4700,12 +4814,12 @@
         <v>44265</v>
       </c>
       <c r="P179" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M180" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N180" s="18">
         <v>72</v>
@@ -4714,12 +4828,12 @@
         <v>44265</v>
       </c>
       <c r="P180" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M181" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N181" s="18">
         <v>72</v>
@@ -4728,12 +4842,12 @@
         <v>44265</v>
       </c>
       <c r="P181" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M182" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N182" s="18">
         <v>72</v>
@@ -4742,12 +4856,12 @@
         <v>44265</v>
       </c>
       <c r="P182" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M183" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N183" s="18">
         <v>72</v>
@@ -4756,12 +4870,12 @@
         <v>44265</v>
       </c>
       <c r="P183" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M184" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N184" s="18">
         <v>72</v>
@@ -4770,12 +4884,12 @@
         <v>44265</v>
       </c>
       <c r="P184" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M185" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N185" s="18">
         <v>72</v>
@@ -4784,12 +4898,12 @@
         <v>44265</v>
       </c>
       <c r="P185" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M186" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N186" s="18">
         <v>72</v>
@@ -4798,12 +4912,12 @@
         <v>44265</v>
       </c>
       <c r="P186" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M187" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N187" s="18">
         <v>72</v>
@@ -4812,12 +4926,12 @@
         <v>44265</v>
       </c>
       <c r="P187" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M188" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N188" s="18">
         <v>72</v>
@@ -4826,12 +4940,12 @@
         <v>44265</v>
       </c>
       <c r="P188" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N189" s="18">
         <v>72</v>
@@ -4840,12 +4954,12 @@
         <v>44265</v>
       </c>
       <c r="P189" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M190" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N190" s="18">
         <v>72</v>
@@ -4854,12 +4968,12 @@
         <v>44265</v>
       </c>
       <c r="P190" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M191" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N191" s="18">
         <v>72</v>
@@ -4868,12 +4982,12 @@
         <v>44265</v>
       </c>
       <c r="P191" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M192" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N192" s="18">
         <v>72</v>
@@ -4882,12 +4996,12 @@
         <v>44265</v>
       </c>
       <c r="P192" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M193" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N193" s="18">
         <v>72</v>
@@ -4896,12 +5010,12 @@
         <v>44265</v>
       </c>
       <c r="P193" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M194" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N194" s="18">
         <v>72</v>
@@ -4910,12 +5024,12 @@
         <v>44265</v>
       </c>
       <c r="P194" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M195" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N195" s="18">
         <v>72</v>
@@ -4924,12 +5038,12 @@
         <v>44265</v>
       </c>
       <c r="P195" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M196" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N196" s="18">
         <v>72</v>
@@ -4938,12 +5052,12 @@
         <v>44265</v>
       </c>
       <c r="P196" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M197" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N197" s="18">
         <v>72</v>
@@ -4952,12 +5066,12 @@
         <v>44265</v>
       </c>
       <c r="P197" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M198" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N198" s="18">
         <v>72</v>
@@ -4966,12 +5080,12 @@
         <v>44265</v>
       </c>
       <c r="P198" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M199" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N199" s="18">
         <v>72</v>
@@ -4980,12 +5094,12 @@
         <v>44265</v>
       </c>
       <c r="P199" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M200" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N200" s="18">
         <v>72</v>
@@ -4994,12 +5108,12 @@
         <v>44265</v>
       </c>
       <c r="P200" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M201" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N201" s="18">
         <v>72</v>
@@ -5008,12 +5122,12 @@
         <v>44265</v>
       </c>
       <c r="P201" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M202" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N202" s="18">
         <v>72</v>
@@ -5022,12 +5136,12 @@
         <v>44265</v>
       </c>
       <c r="P202" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M203" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N203" s="18">
         <v>72</v>
@@ -5036,12 +5150,12 @@
         <v>44265</v>
       </c>
       <c r="P203" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M204" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N204" s="18">
         <v>72</v>
@@ -5050,12 +5164,12 @@
         <v>44265</v>
       </c>
       <c r="P204" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M205" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N205" s="18">
         <v>72</v>
@@ -5064,12 +5178,12 @@
         <v>44265</v>
       </c>
       <c r="P205" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M206" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N206" s="18">
         <v>72</v>
@@ -5078,12 +5192,12 @@
         <v>44265</v>
       </c>
       <c r="P206" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M207" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N207" s="18">
         <v>72</v>
@@ -5092,12 +5206,12 @@
         <v>44265</v>
       </c>
       <c r="P207" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M208" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N208" s="18">
         <v>72</v>
@@ -5106,12 +5220,12 @@
         <v>44265</v>
       </c>
       <c r="P208" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M209" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N209" s="18">
         <v>72</v>
@@ -5120,12 +5234,12 @@
         <v>44265</v>
       </c>
       <c r="P209" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M210" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N210" s="18">
         <v>72</v>
@@ -5134,12 +5248,12 @@
         <v>44265</v>
       </c>
       <c r="P210" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M211" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N211" s="18">
         <v>72</v>
@@ -5148,12 +5262,12 @@
         <v>44265</v>
       </c>
       <c r="P211" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M212" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N212" s="18">
         <v>72</v>
@@ -5162,12 +5276,12 @@
         <v>44265</v>
       </c>
       <c r="P212" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M213" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N213" s="18">
         <v>72</v>
@@ -5176,7 +5290,7 @@
         <v>44265</v>
       </c>
       <c r="P213" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="13:16" x14ac:dyDescent="0.25">

--- a/607.xlsx
+++ b/607.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4347FD5D-08CC-46C4-8EF5-8B887CC54E99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5807621-9313-4C97-98FB-26A910725E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="51">
   <si>
     <t>Discussion</t>
   </si>
@@ -76,13 +75,7 @@
     <t>Lab</t>
   </si>
   <si>
-    <t>ip</t>
-  </si>
-  <si>
     <t>Data Science in Context (4/14)</t>
-  </si>
-  <si>
-    <t>Presentation (4/7?)</t>
   </si>
   <si>
     <t>n</t>
@@ -95,12 +88,6 @@
   </si>
   <si>
     <t>chap 5</t>
-  </si>
-  <si>
-    <t>Big project due at some point</t>
-  </si>
-  <si>
-    <t>project?</t>
   </si>
   <si>
     <t>Location</t>
@@ -200,6 +187,9 @@
   </si>
   <si>
     <t xml:space="preserve">ci = </t>
+  </si>
+  <si>
+    <t>Chapters</t>
   </si>
 </sst>
 </file>
@@ -513,7 +503,271 @@
     <cellStyle name="Normal_Sheet3" xfId="1" xr:uid="{CB047CB3-DC50-490C-A12E-59BDD7AC53AE}"/>
     <cellStyle name="Normal_Sheet4" xfId="2" xr:uid="{0DDC593B-09B0-4CEF-B1AE-FC1F012F3288}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0BEFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF98EAFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0BEFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF98EAFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0BEFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF98EAFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0BEFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF98EAFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDC3B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1122,15 +1376,15 @@
   <dimension ref="A2:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>1</v>
       </c>
@@ -1177,7 +1431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>607</v>
       </c>
@@ -1241,7 +1495,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>8</v>
@@ -1341,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>8</v>
@@ -1388,10 +1642,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1441,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1715,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -1475,7 +1729,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
       <c r="L9" s="15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="15" t="s">
@@ -1485,7 +1739,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -1507,7 +1761,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1529,7 +1783,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -1543,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="2"/>
@@ -1553,7 +1807,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1575,7 +1829,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1597,9 +1851,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1611,7 +1865,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1619,7 +1873,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>606</v>
       </c>
@@ -1639,7 +1893,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>8</v>
@@ -1689,7 +1943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1721,10 +1975,10 @@
         <v>7</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>8</v>
@@ -1739,69 +1993,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q25">
         <f>SQRT(197)</f>
         <v>14.035668847618199</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q26">
         <f>17.2/14</f>
         <v>1.2285714285714284</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J28">
         <v>17.63805</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J29">
         <v>16.47832</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G30">
         <f>68.44847-66.67389</f>
         <v>1.7745800000000003</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q32">
         <f>4.61707 + 0.49143*6.7</f>
         <v>7.9096510000000002</v>
@@ -1809,95 +2061,129 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:N18 E7:Q7 E17:Q17 F18:Q18 L19:L20">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="35" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E8 E4:N5 E7:Q7">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="33" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:N8">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:N7">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="31" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O18">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O7">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P18">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="17" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P5">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P7">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q18">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+      <formula>"due"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
+      <formula>"sub"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q5">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+      <formula>"due"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
+      <formula>"due"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q7">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+      <formula>"due"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:Q18 L19:L20">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+      <formula>"ip"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"due"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
@@ -1907,22 +2193,18 @@
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q5">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"due"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q7">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"due"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:Q18 L19:L20">
+  <conditionalFormatting sqref="Q20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ip"</formula>
     </cfRule>
@@ -1965,67 +2247,67 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="10:16" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="10:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="10:16" x14ac:dyDescent="0.3">
       <c r="M6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6">
         <f>30.69+(1.96*(4.31/SQRT(36)))</f>
         <v>32.097933333333337</v>
       </c>
     </row>
-    <row r="7" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="10:16" x14ac:dyDescent="0.3">
       <c r="P7">
         <f>30.69-(1.96*(4.31/SQRT(36)))</f>
         <v>29.282066666666669</v>
       </c>
     </row>
-    <row r="9" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="10:16" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="10:16" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K14">
         <v>30.69</v>
       </c>
     </row>
-    <row r="15" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="16" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K16">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:25" x14ac:dyDescent="0.3">
       <c r="F20">
         <f>118.2+G21</f>
         <v>120.32333333333334</v>
@@ -2035,7 +2317,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="21" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:25" x14ac:dyDescent="0.3">
       <c r="F21">
         <f>6.5/6</f>
         <v>1.0833333333333333</v>
@@ -2045,42 +2327,42 @@
         <v>2.1233333333333331</v>
       </c>
     </row>
-    <row r="22" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:25" x14ac:dyDescent="0.3">
       <c r="R22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="X22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="Y22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="U22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="W22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="X22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y22" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="6:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="J23">
         <f>6.5/6</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T23" s="22">
         <v>20641</v>
@@ -2089,24 +2371,24 @@
         <v>44265</v>
       </c>
       <c r="V23" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W23" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Y23" s="22">
         <v>44266.36577989583</v>
       </c>
     </row>
-    <row r="24" spans="6:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="R24" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T24" s="22">
         <v>20704</v>
@@ -2115,24 +2397,24 @@
         <v>44253</v>
       </c>
       <c r="V24" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W24" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Y24" s="22">
         <v>44265.394097766199</v>
       </c>
     </row>
-    <row r="25" spans="6:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="R25" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T25" s="22">
         <v>34493</v>
@@ -2141,24 +2423,24 @@
         <v>44265</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W25" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Y25" s="22">
         <v>44266.375588425923</v>
       </c>
     </row>
-    <row r="26" spans="6:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="R26" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T26" s="22">
         <v>14407</v>
@@ -2167,13 +2449,13 @@
         <v>44236</v>
       </c>
       <c r="V26" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W26" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X26" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Y26" s="22">
         <v>44245.487470833337</v>
@@ -2192,28 +2474,28 @@
       <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M1" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M2" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N2" s="18">
         <v>1</v>
@@ -2222,12 +2504,12 @@
         <v>44265</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M3" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N3" s="18">
         <v>60</v>
@@ -2236,12 +2518,12 @@
         <v>44265</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M4" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N4" s="18">
         <v>60</v>
@@ -2250,12 +2532,12 @@
         <v>44265</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M5" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N5" s="18">
         <v>72</v>
@@ -2264,12 +2546,12 @@
         <v>44265</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M6" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N6" s="18">
         <v>72</v>
@@ -2278,12 +2560,12 @@
         <v>44265</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M7" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N7" s="18">
         <v>72</v>
@@ -2292,12 +2574,12 @@
         <v>44265</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M8" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N8" s="18">
         <v>72</v>
@@ -2306,12 +2588,12 @@
         <v>44265</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M9" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N9" s="18">
         <v>72</v>
@@ -2320,12 +2602,12 @@
         <v>44265</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M10" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N10" s="18">
         <v>72</v>
@@ -2334,12 +2616,12 @@
         <v>44265</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M11" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N11" s="18">
         <v>72</v>
@@ -2348,12 +2630,12 @@
         <v>44265</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M12" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N12" s="18">
         <v>72</v>
@@ -2362,12 +2644,12 @@
         <v>44265</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M13" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N13" s="18">
         <v>72</v>
@@ -2376,12 +2658,12 @@
         <v>44265</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M14" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N14" s="18">
         <v>72</v>
@@ -2390,12 +2672,12 @@
         <v>44265</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M15" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N15" s="18">
         <v>72</v>
@@ -2404,12 +2686,12 @@
         <v>44265</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M16" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N16" s="18">
         <v>72</v>
@@ -2418,12 +2700,12 @@
         <v>44265</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M17" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N17" s="18">
         <v>72</v>
@@ -2432,12 +2714,12 @@
         <v>44265</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M18" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N18" s="18">
         <v>72</v>
@@ -2446,12 +2728,12 @@
         <v>44265</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M19" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N19" s="18">
         <v>72</v>
@@ -2460,12 +2742,12 @@
         <v>44265</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M20" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N20" s="18">
         <v>72</v>
@@ -2474,12 +2756,12 @@
         <v>44265</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M21" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N21" s="18">
         <v>72</v>
@@ -2488,12 +2770,12 @@
         <v>44265</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M22" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N22" s="18">
         <v>72</v>
@@ -2502,12 +2784,12 @@
         <v>44265</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M23" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N23" s="18">
         <v>72</v>
@@ -2516,12 +2798,12 @@
         <v>44265</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M24" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N24" s="18">
         <v>48</v>
@@ -2530,12 +2812,12 @@
         <v>44265</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M25" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N25" s="18">
         <v>48</v>
@@ -2544,12 +2826,12 @@
         <v>44265</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M26" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N26" s="18">
         <v>48</v>
@@ -2558,12 +2840,12 @@
         <v>44265</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M27" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N27" s="18">
         <v>48</v>
@@ -2572,12 +2854,12 @@
         <v>44265</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M28" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N28" s="18">
         <v>48</v>
@@ -2586,12 +2868,12 @@
         <v>44265</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M29" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N29" s="18">
         <v>48</v>
@@ -2600,12 +2882,12 @@
         <v>44265</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M30" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N30" s="18">
         <v>48</v>
@@ -2614,12 +2896,12 @@
         <v>44265</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M31" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N31" s="18">
         <v>48</v>
@@ -2628,12 +2910,12 @@
         <v>44265</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M32" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N32" s="18">
         <v>48</v>
@@ -2642,12 +2924,12 @@
         <v>44265</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M33" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N33" s="18">
         <v>48</v>
@@ -2656,12 +2938,12 @@
         <v>44265</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M34" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N34" s="18">
         <v>48</v>
@@ -2670,12 +2952,12 @@
         <v>44265</v>
       </c>
       <c r="P34" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M35" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N35" s="18">
         <v>48</v>
@@ -2684,12 +2966,12 @@
         <v>44265</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M36" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N36" s="18">
         <v>48</v>
@@ -2698,12 +2980,12 @@
         <v>44265</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M37" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N37" s="18">
         <v>48</v>
@@ -2712,12 +2994,12 @@
         <v>44265</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M38" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N38" s="18">
         <v>48</v>
@@ -2726,12 +3008,12 @@
         <v>44265</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M39" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N39" s="18">
         <v>48</v>
@@ -2740,12 +3022,12 @@
         <v>44265</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M40" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N40" s="18">
         <v>48</v>
@@ -2754,12 +3036,12 @@
         <v>44265</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M41" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N41" s="18">
         <v>48</v>
@@ -2768,12 +3050,12 @@
         <v>44265</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M42" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N42" s="18">
         <v>48</v>
@@ -2782,12 +3064,12 @@
         <v>44265</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M43" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N43" s="18">
         <v>48</v>
@@ -2796,12 +3078,12 @@
         <v>44265</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M44" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N44" s="18">
         <v>48</v>
@@ -2810,12 +3092,12 @@
         <v>44265</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M45" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N45" s="18">
         <v>48</v>
@@ -2824,12 +3106,12 @@
         <v>44265</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M46" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N46" s="18">
         <v>48</v>
@@ -2838,12 +3120,12 @@
         <v>44265</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M47" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N47" s="18">
         <v>48</v>
@@ -2852,12 +3134,12 @@
         <v>44265</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M48" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N48" s="18">
         <v>48</v>
@@ -2866,12 +3148,12 @@
         <v>44265</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M49" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N49" s="18">
         <v>48</v>
@@ -2880,12 +3162,12 @@
         <v>44265</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M50" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N50" s="18">
         <v>48</v>
@@ -2894,12 +3176,12 @@
         <v>44265</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M51" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N51" s="18">
         <v>48</v>
@@ -2908,12 +3190,12 @@
         <v>44265</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M52" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N52" s="18">
         <v>48</v>
@@ -2922,12 +3204,12 @@
         <v>44265</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M53" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N53" s="18">
         <v>48</v>
@@ -2936,12 +3218,12 @@
         <v>44265</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M54" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N54" s="18">
         <v>48</v>
@@ -2950,12 +3232,12 @@
         <v>44265</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M55" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N55" s="18">
         <v>48</v>
@@ -2964,12 +3246,12 @@
         <v>44265</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M56" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N56" s="18">
         <v>48</v>
@@ -2978,12 +3260,12 @@
         <v>44265</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M57" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N57" s="18">
         <v>48</v>
@@ -2992,12 +3274,12 @@
         <v>44265</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M58" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N58" s="18">
         <v>48</v>
@@ -3006,12 +3288,12 @@
         <v>44265</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M59" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N59" s="18">
         <v>48</v>
@@ -3020,12 +3302,12 @@
         <v>44265</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M60" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N60" s="18">
         <v>48</v>
@@ -3034,12 +3316,12 @@
         <v>44265</v>
       </c>
       <c r="P60" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M61" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N61" s="18">
         <v>48</v>
@@ -3048,12 +3330,12 @@
         <v>44265</v>
       </c>
       <c r="P61" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M62" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N62" s="18">
         <v>48</v>
@@ -3062,12 +3344,12 @@
         <v>44265</v>
       </c>
       <c r="P62" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M63" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N63" s="18">
         <v>48</v>
@@ -3076,12 +3358,12 @@
         <v>44265</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M64" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N64" s="18">
         <v>48</v>
@@ -3090,12 +3372,12 @@
         <v>44265</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M65" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N65" s="18">
         <v>48</v>
@@ -3104,12 +3386,12 @@
         <v>44265</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M66" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N66" s="18">
         <v>48</v>
@@ -3118,12 +3400,12 @@
         <v>44265</v>
       </c>
       <c r="P66" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M67" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N67" s="18">
         <v>48</v>
@@ -3132,12 +3414,12 @@
         <v>44265</v>
       </c>
       <c r="P67" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M68" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N68" s="18">
         <v>48</v>
@@ -3146,12 +3428,12 @@
         <v>44265</v>
       </c>
       <c r="P68" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M69" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N69" s="18">
         <v>48</v>
@@ -3160,12 +3442,12 @@
         <v>44265</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M70" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N70" s="18">
         <v>48</v>
@@ -3174,12 +3456,12 @@
         <v>44265</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M71" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N71" s="18">
         <v>48</v>
@@ -3188,12 +3470,12 @@
         <v>44265</v>
       </c>
       <c r="P71" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M72" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N72" s="18">
         <v>48</v>
@@ -3202,12 +3484,12 @@
         <v>44265</v>
       </c>
       <c r="P72" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M73" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N73" s="18">
         <v>48</v>
@@ -3216,12 +3498,12 @@
         <v>44265</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M74" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N74" s="18">
         <v>48</v>
@@ -3230,12 +3512,12 @@
         <v>44265</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M75" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N75" s="18">
         <v>48</v>
@@ -3244,12 +3526,12 @@
         <v>44265</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M76" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N76" s="18">
         <v>48</v>
@@ -3258,12 +3540,12 @@
         <v>44265</v>
       </c>
       <c r="P76" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M77" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N77" s="18">
         <v>48</v>
@@ -3272,12 +3554,12 @@
         <v>44265</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M78" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N78" s="18">
         <v>48</v>
@@ -3286,12 +3568,12 @@
         <v>44265</v>
       </c>
       <c r="P78" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M79" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N79" s="18">
         <v>48</v>
@@ -3300,12 +3582,12 @@
         <v>44265</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M80" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N80" s="18">
         <v>48</v>
@@ -3314,12 +3596,12 @@
         <v>44265</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M81" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N81" s="18">
         <v>48</v>
@@ -3328,12 +3610,12 @@
         <v>44265</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M82" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N82" s="18">
         <v>48</v>
@@ -3342,12 +3624,12 @@
         <v>44265</v>
       </c>
       <c r="P82" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M83" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N83" s="18">
         <v>48</v>
@@ -3356,12 +3638,12 @@
         <v>44265</v>
       </c>
       <c r="P83" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M84" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N84" s="18">
         <v>48</v>
@@ -3370,12 +3652,12 @@
         <v>44265</v>
       </c>
       <c r="P84" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M85" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N85" s="18">
         <v>48</v>
@@ -3384,12 +3666,12 @@
         <v>44265</v>
       </c>
       <c r="P85" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M86" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N86" s="18">
         <v>48</v>
@@ -3398,12 +3680,12 @@
         <v>44265</v>
       </c>
       <c r="P86" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M87" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N87" s="18">
         <v>48</v>
@@ -3412,12 +3694,12 @@
         <v>44265</v>
       </c>
       <c r="P87" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M88" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N88" s="18">
         <v>48</v>
@@ -3426,12 +3708,12 @@
         <v>44265</v>
       </c>
       <c r="P88" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M89" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N89" s="18">
         <v>48</v>
@@ -3440,12 +3722,12 @@
         <v>44265</v>
       </c>
       <c r="P89" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M90" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N90" s="18">
         <v>48</v>
@@ -3454,12 +3736,12 @@
         <v>44265</v>
       </c>
       <c r="P90" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M91" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N91" s="18">
         <v>48</v>
@@ -3468,12 +3750,12 @@
         <v>44265</v>
       </c>
       <c r="P91" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M92" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N92" s="18">
         <v>48</v>
@@ -3482,12 +3764,12 @@
         <v>44265</v>
       </c>
       <c r="P92" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M93" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N93" s="18">
         <v>72</v>
@@ -3496,12 +3778,12 @@
         <v>44265</v>
       </c>
       <c r="P93" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M94" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N94" s="18">
         <v>48</v>
@@ -3510,12 +3792,12 @@
         <v>44265</v>
       </c>
       <c r="P94" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M95" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N95" s="18">
         <v>48</v>
@@ -3524,12 +3806,12 @@
         <v>44265</v>
       </c>
       <c r="P95" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M96" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N96" s="18">
         <v>48</v>
@@ -3538,12 +3820,12 @@
         <v>44265</v>
       </c>
       <c r="P96" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M97" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N97" s="18">
         <v>48</v>
@@ -3552,12 +3834,12 @@
         <v>44265</v>
       </c>
       <c r="P97" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M98" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N98" s="18">
         <v>48</v>
@@ -3566,12 +3848,12 @@
         <v>44265</v>
       </c>
       <c r="P98" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M99" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N99" s="18">
         <v>48</v>
@@ -3580,12 +3862,12 @@
         <v>44265</v>
       </c>
       <c r="P99" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M100" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N100" s="18">
         <v>48</v>
@@ -3594,12 +3876,12 @@
         <v>44265</v>
       </c>
       <c r="P100" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M101" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N101" s="18">
         <v>48</v>
@@ -3608,12 +3890,12 @@
         <v>44265</v>
       </c>
       <c r="P101" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M102" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N102" s="18">
         <v>72</v>
@@ -3622,12 +3904,12 @@
         <v>44265</v>
       </c>
       <c r="P102" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M103" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N103" s="18">
         <v>48</v>
@@ -3636,12 +3918,12 @@
         <v>44265</v>
       </c>
       <c r="P103" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M104" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N104" s="18">
         <v>48</v>
@@ -3650,12 +3932,12 @@
         <v>44265</v>
       </c>
       <c r="P104" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M105" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N105" s="18">
         <v>48</v>
@@ -3664,12 +3946,12 @@
         <v>44265</v>
       </c>
       <c r="P105" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M106" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N106" s="18">
         <v>48</v>
@@ -3678,12 +3960,12 @@
         <v>44265</v>
       </c>
       <c r="P106" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M107" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N107" s="18">
         <v>48</v>
@@ -3692,12 +3974,12 @@
         <v>44265</v>
       </c>
       <c r="P107" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M108" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N108" s="18">
         <v>72</v>
@@ -3706,12 +3988,12 @@
         <v>44265</v>
       </c>
       <c r="P108" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M109" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N109" s="18">
         <v>48</v>
@@ -3720,12 +4002,12 @@
         <v>44265</v>
       </c>
       <c r="P109" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M110" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N110" s="18">
         <v>48</v>
@@ -3734,12 +4016,12 @@
         <v>44265</v>
       </c>
       <c r="P110" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M111" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N111" s="18">
         <v>48</v>
@@ -3748,12 +4030,12 @@
         <v>44265</v>
       </c>
       <c r="P111" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M112" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N112" s="18">
         <v>48</v>
@@ -3762,12 +4044,12 @@
         <v>44265</v>
       </c>
       <c r="P112" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M113" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N113" s="18">
         <v>72</v>
@@ -3776,12 +4058,12 @@
         <v>44265</v>
       </c>
       <c r="P113" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M114" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N114" s="18">
         <v>48</v>
@@ -3790,12 +4072,12 @@
         <v>44265</v>
       </c>
       <c r="P114" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M115" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N115" s="18">
         <v>48</v>
@@ -3804,12 +4086,12 @@
         <v>44265</v>
       </c>
       <c r="P115" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M116" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N116" s="18">
         <v>48</v>
@@ -3818,12 +4100,12 @@
         <v>44265</v>
       </c>
       <c r="P116" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M117" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N117" s="18">
         <v>48</v>
@@ -3832,12 +4114,12 @@
         <v>44265</v>
       </c>
       <c r="P117" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M118" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N118" s="18">
         <v>48</v>
@@ -3846,12 +4128,12 @@
         <v>44265</v>
       </c>
       <c r="P118" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M119" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N119" s="18">
         <v>48</v>
@@ -3860,12 +4142,12 @@
         <v>44265</v>
       </c>
       <c r="P119" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M120" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N120" s="18">
         <v>48</v>
@@ -3874,12 +4156,12 @@
         <v>44265</v>
       </c>
       <c r="P120" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M121" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N121" s="18">
         <v>48</v>
@@ -3888,12 +4170,12 @@
         <v>44265</v>
       </c>
       <c r="P121" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M122" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N122" s="18">
         <v>48</v>
@@ -3902,12 +4184,12 @@
         <v>44265</v>
       </c>
       <c r="P122" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M123" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N123" s="18">
         <v>72</v>
@@ -3916,12 +4198,12 @@
         <v>44265</v>
       </c>
       <c r="P123" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M124" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N124" s="18">
         <v>72</v>
@@ -3930,12 +4212,12 @@
         <v>44265</v>
       </c>
       <c r="P124" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M125" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N125" s="18">
         <v>72</v>
@@ -3944,12 +4226,12 @@
         <v>44265</v>
       </c>
       <c r="P125" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M126" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N126" s="18">
         <v>72</v>
@@ -3958,12 +4240,12 @@
         <v>44265</v>
       </c>
       <c r="P126" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M127" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N127" s="18">
         <v>72</v>
@@ -3972,12 +4254,12 @@
         <v>44265</v>
       </c>
       <c r="P127" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M128" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N128" s="18">
         <v>72</v>
@@ -3986,12 +4268,12 @@
         <v>44265</v>
       </c>
       <c r="P128" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M129" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N129" s="18">
         <v>72</v>
@@ -4000,12 +4282,12 @@
         <v>44265</v>
       </c>
       <c r="P129" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M130" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N130" s="18">
         <v>72</v>
@@ -4014,12 +4296,12 @@
         <v>44265</v>
       </c>
       <c r="P130" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M131" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N131" s="18">
         <v>72</v>
@@ -4028,12 +4310,12 @@
         <v>44265</v>
       </c>
       <c r="P131" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M132" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N132" s="18">
         <v>72</v>
@@ -4042,12 +4324,12 @@
         <v>44265</v>
       </c>
       <c r="P132" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M133" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N133" s="18">
         <v>72</v>
@@ -4056,12 +4338,12 @@
         <v>44265</v>
       </c>
       <c r="P133" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M134" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N134" s="18">
         <v>72</v>
@@ -4070,12 +4352,12 @@
         <v>44265</v>
       </c>
       <c r="P134" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M135" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N135" s="18">
         <v>72</v>
@@ -4084,12 +4366,12 @@
         <v>44265</v>
       </c>
       <c r="P135" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M136" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N136" s="18">
         <v>72</v>
@@ -4098,12 +4380,12 @@
         <v>44265</v>
       </c>
       <c r="P136" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M137" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N137" s="18">
         <v>72</v>
@@ -4112,12 +4394,12 @@
         <v>44265</v>
       </c>
       <c r="P137" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M138" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N138" s="18">
         <v>72</v>
@@ -4126,12 +4408,12 @@
         <v>44265</v>
       </c>
       <c r="P138" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M139" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N139" s="18">
         <v>72</v>
@@ -4140,12 +4422,12 @@
         <v>44265</v>
       </c>
       <c r="P139" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M140" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N140" s="18">
         <v>72</v>
@@ -4154,12 +4436,12 @@
         <v>44265</v>
       </c>
       <c r="P140" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M141" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N141" s="18">
         <v>72</v>
@@ -4168,12 +4450,12 @@
         <v>44265</v>
       </c>
       <c r="P141" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M142" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N142" s="18">
         <v>72</v>
@@ -4182,12 +4464,12 @@
         <v>44265</v>
       </c>
       <c r="P142" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M143" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N143" s="18">
         <v>72</v>
@@ -4196,12 +4478,12 @@
         <v>44265</v>
       </c>
       <c r="P143" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M144" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N144" s="18">
         <v>72</v>
@@ -4210,12 +4492,12 @@
         <v>44265</v>
       </c>
       <c r="P144" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M145" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N145" s="18">
         <v>72</v>
@@ -4224,12 +4506,12 @@
         <v>44265</v>
       </c>
       <c r="P145" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M146" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N146" s="18">
         <v>72</v>
@@ -4238,12 +4520,12 @@
         <v>44265</v>
       </c>
       <c r="P146" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M147" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N147" s="18">
         <v>72</v>
@@ -4252,12 +4534,12 @@
         <v>44265</v>
       </c>
       <c r="P147" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M148" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N148" s="18">
         <v>72</v>
@@ -4266,12 +4548,12 @@
         <v>44265</v>
       </c>
       <c r="P148" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M149" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N149" s="18">
         <v>72</v>
@@ -4280,12 +4562,12 @@
         <v>44265</v>
       </c>
       <c r="P149" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M150" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N150" s="18">
         <v>72</v>
@@ -4294,12 +4576,12 @@
         <v>44265</v>
       </c>
       <c r="P150" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M151" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N151" s="18">
         <v>72</v>
@@ -4308,12 +4590,12 @@
         <v>44265</v>
       </c>
       <c r="P151" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M152" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N152" s="18">
         <v>72</v>
@@ -4322,12 +4604,12 @@
         <v>44265</v>
       </c>
       <c r="P152" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M153" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N153" s="18">
         <v>72</v>
@@ -4336,12 +4618,12 @@
         <v>44265</v>
       </c>
       <c r="P153" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M154" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N154" s="18">
         <v>72</v>
@@ -4350,12 +4632,12 @@
         <v>44265</v>
       </c>
       <c r="P154" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M155" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N155" s="18">
         <v>72</v>
@@ -4364,12 +4646,12 @@
         <v>44265</v>
       </c>
       <c r="P155" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M156" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N156" s="18">
         <v>72</v>
@@ -4378,12 +4660,12 @@
         <v>44265</v>
       </c>
       <c r="P156" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M157" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N157" s="18">
         <v>72</v>
@@ -4392,12 +4674,12 @@
         <v>44265</v>
       </c>
       <c r="P157" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M158" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N158" s="18">
         <v>72</v>
@@ -4406,12 +4688,12 @@
         <v>44265</v>
       </c>
       <c r="P158" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M159" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N159" s="18">
         <v>72</v>
@@ -4420,12 +4702,12 @@
         <v>44265</v>
       </c>
       <c r="P159" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M160" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N160" s="18">
         <v>72</v>
@@ -4434,12 +4716,12 @@
         <v>44265</v>
       </c>
       <c r="P160" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M161" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N161" s="18">
         <v>72</v>
@@ -4448,12 +4730,12 @@
         <v>44265</v>
       </c>
       <c r="P161" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M162" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N162" s="18">
         <v>72</v>
@@ -4462,12 +4744,12 @@
         <v>44265</v>
       </c>
       <c r="P162" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M163" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N163" s="18">
         <v>72</v>
@@ -4476,12 +4758,12 @@
         <v>44265</v>
       </c>
       <c r="P163" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M164" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N164" s="18">
         <v>72</v>
@@ -4490,12 +4772,12 @@
         <v>44265</v>
       </c>
       <c r="P164" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M165" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N165" s="18">
         <v>72</v>
@@ -4504,12 +4786,12 @@
         <v>44265</v>
       </c>
       <c r="P165" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M166" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N166" s="18">
         <v>72</v>
@@ -4518,12 +4800,12 @@
         <v>44265</v>
       </c>
       <c r="P166" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M167" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N167" s="18">
         <v>72</v>
@@ -4532,12 +4814,12 @@
         <v>44265</v>
       </c>
       <c r="P167" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M168" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N168" s="18">
         <v>72</v>
@@ -4546,12 +4828,12 @@
         <v>44265</v>
       </c>
       <c r="P168" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M169" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N169" s="18">
         <v>72</v>
@@ -4560,12 +4842,12 @@
         <v>44265</v>
       </c>
       <c r="P169" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M170" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N170" s="18">
         <v>72</v>
@@ -4574,12 +4856,12 @@
         <v>44265</v>
       </c>
       <c r="P170" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="171" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M171" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N171" s="18">
         <v>72</v>
@@ -4588,12 +4870,12 @@
         <v>44265</v>
       </c>
       <c r="P171" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M172" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N172" s="18">
         <v>72</v>
@@ -4602,12 +4884,12 @@
         <v>44265</v>
       </c>
       <c r="P172" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M173" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N173" s="18">
         <v>72</v>
@@ -4616,12 +4898,12 @@
         <v>44265</v>
       </c>
       <c r="P173" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M174" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N174" s="18">
         <v>72</v>
@@ -4630,12 +4912,12 @@
         <v>44265</v>
       </c>
       <c r="P174" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M175" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N175" s="18">
         <v>72</v>
@@ -4644,12 +4926,12 @@
         <v>44265</v>
       </c>
       <c r="P175" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M176" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N176" s="18">
         <v>72</v>
@@ -4658,12 +4940,12 @@
         <v>44265</v>
       </c>
       <c r="P176" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M177" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N177" s="18">
         <v>72</v>
@@ -4672,12 +4954,12 @@
         <v>44265</v>
       </c>
       <c r="P177" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M178" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N178" s="18">
         <v>72</v>
@@ -4686,12 +4968,12 @@
         <v>44265</v>
       </c>
       <c r="P178" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M179" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N179" s="18">
         <v>72</v>
@@ -4700,12 +4982,12 @@
         <v>44265</v>
       </c>
       <c r="P179" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="180" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M180" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N180" s="18">
         <v>72</v>
@@ -4714,12 +4996,12 @@
         <v>44265</v>
       </c>
       <c r="P180" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M181" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N181" s="18">
         <v>72</v>
@@ -4728,12 +5010,12 @@
         <v>44265</v>
       </c>
       <c r="P181" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M182" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N182" s="18">
         <v>72</v>
@@ -4742,12 +5024,12 @@
         <v>44265</v>
       </c>
       <c r="P182" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="183" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M183" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N183" s="18">
         <v>72</v>
@@ -4756,12 +5038,12 @@
         <v>44265</v>
       </c>
       <c r="P183" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M184" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N184" s="18">
         <v>72</v>
@@ -4770,12 +5052,12 @@
         <v>44265</v>
       </c>
       <c r="P184" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M185" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N185" s="18">
         <v>72</v>
@@ -4784,12 +5066,12 @@
         <v>44265</v>
       </c>
       <c r="P185" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M186" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N186" s="18">
         <v>72</v>
@@ -4798,12 +5080,12 @@
         <v>44265</v>
       </c>
       <c r="P186" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="187" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M187" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N187" s="18">
         <v>72</v>
@@ -4812,12 +5094,12 @@
         <v>44265</v>
       </c>
       <c r="P187" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M188" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N188" s="18">
         <v>72</v>
@@ -4826,12 +5108,12 @@
         <v>44265</v>
       </c>
       <c r="P188" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M189" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N189" s="18">
         <v>72</v>
@@ -4840,12 +5122,12 @@
         <v>44265</v>
       </c>
       <c r="P189" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M190" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N190" s="18">
         <v>72</v>
@@ -4854,12 +5136,12 @@
         <v>44265</v>
       </c>
       <c r="P190" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="191" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M191" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N191" s="18">
         <v>72</v>
@@ -4868,12 +5150,12 @@
         <v>44265</v>
       </c>
       <c r="P191" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M192" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N192" s="18">
         <v>72</v>
@@ -4882,12 +5164,12 @@
         <v>44265</v>
       </c>
       <c r="P192" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M193" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N193" s="18">
         <v>72</v>
@@ -4896,12 +5178,12 @@
         <v>44265</v>
       </c>
       <c r="P193" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M194" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N194" s="18">
         <v>72</v>
@@ -4910,12 +5192,12 @@
         <v>44265</v>
       </c>
       <c r="P194" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M195" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N195" s="18">
         <v>72</v>
@@ -4924,12 +5206,12 @@
         <v>44265</v>
       </c>
       <c r="P195" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M196" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N196" s="18">
         <v>72</v>
@@ -4938,12 +5220,12 @@
         <v>44265</v>
       </c>
       <c r="P196" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M197" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N197" s="18">
         <v>72</v>
@@ -4952,12 +5234,12 @@
         <v>44265</v>
       </c>
       <c r="P197" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M198" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N198" s="18">
         <v>72</v>
@@ -4966,12 +5248,12 @@
         <v>44265</v>
       </c>
       <c r="P198" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M199" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N199" s="18">
         <v>72</v>
@@ -4980,12 +5262,12 @@
         <v>44265</v>
       </c>
       <c r="P199" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="200" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M200" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N200" s="18">
         <v>72</v>
@@ -4994,12 +5276,12 @@
         <v>44265</v>
       </c>
       <c r="P200" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="201" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M201" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N201" s="18">
         <v>72</v>
@@ -5008,12 +5290,12 @@
         <v>44265</v>
       </c>
       <c r="P201" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="202" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M202" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N202" s="18">
         <v>72</v>
@@ -5022,12 +5304,12 @@
         <v>44265</v>
       </c>
       <c r="P202" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M203" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N203" s="18">
         <v>72</v>
@@ -5036,12 +5318,12 @@
         <v>44265</v>
       </c>
       <c r="P203" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="204" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M204" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N204" s="18">
         <v>72</v>
@@ -5050,12 +5332,12 @@
         <v>44265</v>
       </c>
       <c r="P204" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M205" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N205" s="18">
         <v>72</v>
@@ -5064,12 +5346,12 @@
         <v>44265</v>
       </c>
       <c r="P205" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M206" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N206" s="18">
         <v>72</v>
@@ -5078,12 +5360,12 @@
         <v>44265</v>
       </c>
       <c r="P206" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M207" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N207" s="18">
         <v>72</v>
@@ -5092,12 +5374,12 @@
         <v>44265</v>
       </c>
       <c r="P207" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M208" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N208" s="18">
         <v>72</v>
@@ -5106,12 +5388,12 @@
         <v>44265</v>
       </c>
       <c r="P208" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M209" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N209" s="18">
         <v>72</v>
@@ -5120,12 +5402,12 @@
         <v>44265</v>
       </c>
       <c r="P209" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M210" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N210" s="18">
         <v>72</v>
@@ -5134,12 +5416,12 @@
         <v>44265</v>
       </c>
       <c r="P210" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M211" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N211" s="18">
         <v>72</v>
@@ -5148,12 +5430,12 @@
         <v>44265</v>
       </c>
       <c r="P211" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="212" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M212" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N212" s="18">
         <v>72</v>
@@ -5162,12 +5444,12 @@
         <v>44265</v>
       </c>
       <c r="P212" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="13:16" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="M213" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N213" s="18">
         <v>72</v>
@@ -5176,10 +5458,10 @@
         <v>44265</v>
       </c>
       <c r="P213" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="13:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="13:16" x14ac:dyDescent="0.3">
       <c r="N214">
         <f>SUM(N2:N213)</f>
         <v>12889</v>
@@ -5198,12 +5480,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D1">
         <f>0.8^10</f>
         <v>0.10737418240000011</v>
@@ -5213,29 +5495,29 @@
         <v>0.10737418240000006</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O9">
         <f>9*8*7*6*5*4*3</f>
         <v>181440</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O10">
         <f>O9*7*6*5*4*3*2*1</f>
         <v>914457600</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M15">
         <v>3</v>

--- a/607.xlsx
+++ b/607.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5807621-9313-4C97-98FB-26A910725E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A96331-6DDB-4193-9C9C-49280319D1CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="52">
   <si>
     <t>Discussion</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Chapters</t>
+  </si>
+  <si>
+    <t>ip</t>
   </si>
 </sst>
 </file>
@@ -503,205 +506,7 @@
     <cellStyle name="Normal_Sheet3" xfId="1" xr:uid="{CB047CB3-DC50-490C-A12E-59BDD7AC53AE}"/>
     <cellStyle name="Normal_Sheet4" xfId="2" xr:uid="{0DDC593B-09B0-4CEF-B1AE-FC1F012F3288}"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0BEFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98EAFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDC3B1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDC3B1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0BEFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98EAFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDC3B1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDC3B1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0BEFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98EAFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDC3B1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDC3B1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -1376,15 +1181,15 @@
   <dimension ref="A2:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
@@ -1431,7 +1236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>607</v>
       </c>
@@ -1495,7 +1300,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>8</v>
@@ -1645,7 +1450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1695,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1520,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -1739,7 +1544,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -1761,7 +1566,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1783,7 +1588,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -1807,7 +1612,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1829,7 +1634,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1867,13 +1672,15 @@
       <c r="L15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>606</v>
       </c>
@@ -1893,7 +1700,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="N17" s="9" t="s">
         <v>8</v>
@@ -1943,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1993,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2011,7 +1818,7 @@
       </c>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2022,29 +1829,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>0.61^2</f>
+        <v>0.37209999999999999</v>
+      </c>
       <c r="Q25">
         <f>SQRT(197)</f>
         <v>14.035668847618199</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q26">
         <f>17.2/14</f>
         <v>1.2285714285714284</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>17.63805</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>16.47832</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G30">
         <f>68.44847-66.67389</f>
         <v>1.7745800000000003</v>
@@ -2053,7 +1864,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>0.61*0.61</f>
+        <v>0.37209999999999999</v>
+      </c>
       <c r="Q32">
         <f>4.61707 + 0.49143*6.7</f>
         <v>7.9096510000000002</v>
@@ -2061,124 +1876,124 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:N18 E7:Q7 E17:Q17 F18:Q18 L19:L20">
-    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E8 E4:N5 E7:Q7">
-    <cfRule type="cellIs" dxfId="55" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:N8">
-    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:N7">
-    <cfRule type="cellIs" dxfId="53" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O18">
-    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O7">
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P18">
-    <cfRule type="cellIs" dxfId="45" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P5">
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P7">
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q18">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"due"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"sub"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q5">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q7">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"due"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:Q18 L19:L20">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2247,15 +2062,15 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="12.5546875" customWidth="1"/>
-    <col min="21" max="21" width="17.5546875" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="10:16" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
         <v>26</v>
       </c>
@@ -2263,7 +2078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="10:16" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
         <v>26</v>
       </c>
@@ -2272,18 +2087,18 @@
         <v>32.097933333333337</v>
       </c>
     </row>
-    <row r="7" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="10:16" x14ac:dyDescent="0.25">
       <c r="P7">
         <f>30.69-(1.96*(4.31/SQRT(36)))</f>
         <v>29.282066666666669</v>
       </c>
     </row>
-    <row r="9" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="10:16" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>24</v>
       </c>
@@ -2291,7 +2106,7 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="15" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>25</v>
       </c>
@@ -2299,7 +2114,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="16" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>13</v>
       </c>
@@ -2307,7 +2122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="6:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F20">
         <f>118.2+G21</f>
         <v>120.32333333333334</v>
@@ -2317,7 +2132,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="21" spans="6:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>6.5/6</f>
         <v>1.0833333333333333</v>
@@ -2327,7 +2142,7 @@
         <v>2.1233333333333331</v>
       </c>
     </row>
-    <row r="22" spans="6:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:25" x14ac:dyDescent="0.25">
       <c r="R22" s="20" t="s">
         <v>29</v>
       </c>
@@ -2353,7 +2168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="J23">
         <f>6.5/6</f>
         <v>1.0833333333333333</v>
@@ -2383,7 +2198,7 @@
         <v>44266.36577989583</v>
       </c>
     </row>
-    <row r="24" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="R24" s="21" t="s">
         <v>40</v>
       </c>
@@ -2409,7 +2224,7 @@
         <v>44265.394097766199</v>
       </c>
     </row>
-    <row r="25" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="R25" s="21" t="s">
         <v>42</v>
       </c>
@@ -2435,7 +2250,7 @@
         <v>44266.375588425923</v>
       </c>
     </row>
-    <row r="26" spans="6:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:25" ht="45" x14ac:dyDescent="0.25">
       <c r="R26" s="21" t="s">
         <v>44</v>
       </c>
@@ -2474,12 +2289,12 @@
       <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M1" s="16" t="s">
         <v>17</v>
       </c>
@@ -2493,7 +2308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2507,7 +2322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2521,7 +2336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M4" s="17" t="s">
         <v>21</v>
       </c>
@@ -2535,7 +2350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M5" s="17" t="s">
         <v>21</v>
       </c>
@@ -2549,7 +2364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M7" s="17" t="s">
         <v>21</v>
       </c>
@@ -2577,7 +2392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M8" s="17" t="s">
         <v>21</v>
       </c>
@@ -2591,7 +2406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M9" s="17" t="s">
         <v>21</v>
       </c>
@@ -2605,7 +2420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M10" s="17" t="s">
         <v>21</v>
       </c>
@@ -2619,7 +2434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M11" s="17" t="s">
         <v>21</v>
       </c>
@@ -2633,7 +2448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M12" s="17" t="s">
         <v>21</v>
       </c>
@@ -2647,7 +2462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M13" s="17" t="s">
         <v>21</v>
       </c>
@@ -2661,7 +2476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M14" s="17" t="s">
         <v>21</v>
       </c>
@@ -2675,7 +2490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M15" s="17" t="s">
         <v>21</v>
       </c>
@@ -2689,7 +2504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M16" s="17" t="s">
         <v>21</v>
       </c>
@@ -2703,7 +2518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M17" s="17" t="s">
         <v>21</v>
       </c>
@@ -2717,7 +2532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M18" s="17" t="s">
         <v>21</v>
       </c>
@@ -2731,7 +2546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M19" s="17" t="s">
         <v>21</v>
       </c>
@@ -2745,7 +2560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M20" s="17" t="s">
         <v>21</v>
       </c>
@@ -2759,7 +2574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M21" s="17" t="s">
         <v>21</v>
       </c>
@@ -2773,7 +2588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M22" s="17" t="s">
         <v>21</v>
       </c>
@@ -2787,7 +2602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M23" s="17" t="s">
         <v>21</v>
       </c>
@@ -2801,7 +2616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M24" s="17" t="s">
         <v>23</v>
       </c>
@@ -2815,7 +2630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M25" s="17" t="s">
         <v>23</v>
       </c>
@@ -2829,7 +2644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M26" s="17" t="s">
         <v>23</v>
       </c>
@@ -2843,7 +2658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M27" s="17" t="s">
         <v>23</v>
       </c>
@@ -2857,7 +2672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M28" s="17" t="s">
         <v>23</v>
       </c>
@@ -2871,7 +2686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M29" s="17" t="s">
         <v>23</v>
       </c>
@@ -2885,7 +2700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M30" s="17" t="s">
         <v>23</v>
       </c>
@@ -2899,7 +2714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M31" s="17" t="s">
         <v>23</v>
       </c>
@@ -2913,7 +2728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M32" s="17" t="s">
         <v>23</v>
       </c>
@@ -2927,7 +2742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M33" s="17" t="s">
         <v>23</v>
       </c>
@@ -2941,7 +2756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M34" s="17" t="s">
         <v>23</v>
       </c>
@@ -2955,7 +2770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M35" s="17" t="s">
         <v>23</v>
       </c>
@@ -2969,7 +2784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M36" s="17" t="s">
         <v>23</v>
       </c>
@@ -2983,7 +2798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M37" s="17" t="s">
         <v>23</v>
       </c>
@@ -2997,7 +2812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M38" s="17" t="s">
         <v>23</v>
       </c>
@@ -3011,7 +2826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M39" s="17" t="s">
         <v>23</v>
       </c>
@@ -3025,7 +2840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M40" s="17" t="s">
         <v>23</v>
       </c>
@@ -3039,7 +2854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M41" s="17" t="s">
         <v>23</v>
       </c>
@@ -3053,7 +2868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M42" s="17" t="s">
         <v>23</v>
       </c>
@@ -3067,7 +2882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M43" s="17" t="s">
         <v>23</v>
       </c>
@@ -3081,7 +2896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M44" s="17" t="s">
         <v>23</v>
       </c>
@@ -3095,7 +2910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M45" s="17" t="s">
         <v>23</v>
       </c>
@@ -3109,7 +2924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M46" s="17" t="s">
         <v>23</v>
       </c>
@@ -3123,7 +2938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M47" s="17" t="s">
         <v>23</v>
       </c>
@@ -3137,7 +2952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M48" s="17" t="s">
         <v>23</v>
       </c>
@@ -3151,7 +2966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M49" s="17" t="s">
         <v>23</v>
       </c>
@@ -3165,7 +2980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M50" s="17" t="s">
         <v>23</v>
       </c>
@@ -3179,7 +2994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M51" s="17" t="s">
         <v>23</v>
       </c>
@@ -3193,7 +3008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M52" s="17" t="s">
         <v>23</v>
       </c>
@@ -3207,7 +3022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M53" s="17" t="s">
         <v>23</v>
       </c>
@@ -3221,7 +3036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M54" s="17" t="s">
         <v>23</v>
       </c>
@@ -3235,7 +3050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M55" s="17" t="s">
         <v>23</v>
       </c>
@@ -3249,7 +3064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M56" s="17" t="s">
         <v>23</v>
       </c>
@@ -3263,7 +3078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M57" s="17" t="s">
         <v>23</v>
       </c>
@@ -3277,7 +3092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M58" s="17" t="s">
         <v>23</v>
       </c>
@@ -3291,7 +3106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M59" s="17" t="s">
         <v>23</v>
       </c>
@@ -3305,7 +3120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M60" s="17" t="s">
         <v>23</v>
       </c>
@@ -3319,7 +3134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M61" s="17" t="s">
         <v>23</v>
       </c>
@@ -3333,7 +3148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M62" s="17" t="s">
         <v>23</v>
       </c>
@@ -3347,7 +3162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M63" s="17" t="s">
         <v>23</v>
       </c>
@@ -3361,7 +3176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M64" s="17" t="s">
         <v>23</v>
       </c>
@@ -3375,7 +3190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M65" s="17" t="s">
         <v>23</v>
       </c>
@@ -3389,7 +3204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M66" s="17" t="s">
         <v>23</v>
       </c>
@@ -3403,7 +3218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M67" s="17" t="s">
         <v>23</v>
       </c>
@@ -3417,7 +3232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M68" s="17" t="s">
         <v>23</v>
       </c>
@@ -3431,7 +3246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M69" s="17" t="s">
         <v>23</v>
       </c>
@@ -3445,7 +3260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M70" s="17" t="s">
         <v>23</v>
       </c>
@@ -3459,7 +3274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M71" s="17" t="s">
         <v>23</v>
       </c>
@@ -3473,7 +3288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M72" s="17" t="s">
         <v>23</v>
       </c>
@@ -3487,7 +3302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M73" s="17" t="s">
         <v>23</v>
       </c>
@@ -3501,7 +3316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M74" s="17" t="s">
         <v>23</v>
       </c>
@@ -3515,7 +3330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M75" s="17" t="s">
         <v>23</v>
       </c>
@@ -3529,7 +3344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M76" s="17" t="s">
         <v>23</v>
       </c>
@@ -3543,7 +3358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M77" s="17" t="s">
         <v>23</v>
       </c>
@@ -3557,7 +3372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M78" s="17" t="s">
         <v>23</v>
       </c>
@@ -3571,7 +3386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M79" s="17" t="s">
         <v>21</v>
       </c>
@@ -3585,7 +3400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M80" s="17" t="s">
         <v>23</v>
       </c>
@@ -3599,7 +3414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M81" s="17" t="s">
         <v>23</v>
       </c>
@@ -3613,7 +3428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M82" s="17" t="s">
         <v>23</v>
       </c>
@@ -3627,7 +3442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M83" s="17" t="s">
         <v>23</v>
       </c>
@@ -3641,7 +3456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M84" s="17" t="s">
         <v>23</v>
       </c>
@@ -3655,7 +3470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M85" s="17" t="s">
         <v>23</v>
       </c>
@@ -3669,7 +3484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M86" s="17" t="s">
         <v>23</v>
       </c>
@@ -3683,7 +3498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M87" s="17" t="s">
         <v>23</v>
       </c>
@@ -3697,7 +3512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M88" s="17" t="s">
         <v>23</v>
       </c>
@@ -3711,7 +3526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M89" s="17" t="s">
         <v>23</v>
       </c>
@@ -3725,7 +3540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M90" s="17" t="s">
         <v>23</v>
       </c>
@@ -3739,7 +3554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M91" s="17" t="s">
         <v>23</v>
       </c>
@@ -3753,7 +3568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M92" s="17" t="s">
         <v>23</v>
       </c>
@@ -3767,7 +3582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M93" s="17" t="s">
         <v>21</v>
       </c>
@@ -3781,7 +3596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M94" s="17" t="s">
         <v>23</v>
       </c>
@@ -3795,7 +3610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M95" s="17" t="s">
         <v>23</v>
       </c>
@@ -3809,7 +3624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M96" s="17" t="s">
         <v>23</v>
       </c>
@@ -3823,7 +3638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M97" s="17" t="s">
         <v>23</v>
       </c>
@@ -3837,7 +3652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M98" s="17" t="s">
         <v>23</v>
       </c>
@@ -3851,7 +3666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M99" s="17" t="s">
         <v>23</v>
       </c>
@@ -3865,7 +3680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M100" s="17" t="s">
         <v>23</v>
       </c>
@@ -3879,7 +3694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M101" s="17" t="s">
         <v>23</v>
       </c>
@@ -3893,7 +3708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M102" s="17" t="s">
         <v>21</v>
       </c>
@@ -3907,7 +3722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M103" s="17" t="s">
         <v>23</v>
       </c>
@@ -3921,7 +3736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M104" s="17" t="s">
         <v>23</v>
       </c>
@@ -3935,7 +3750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M105" s="17" t="s">
         <v>23</v>
       </c>
@@ -3949,7 +3764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M106" s="17" t="s">
         <v>23</v>
       </c>
@@ -3963,7 +3778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M107" s="17" t="s">
         <v>21</v>
       </c>
@@ -3977,7 +3792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M108" s="17" t="s">
         <v>21</v>
       </c>
@@ -3991,7 +3806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M109" s="17" t="s">
         <v>23</v>
       </c>
@@ -4005,7 +3820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M110" s="17" t="s">
         <v>23</v>
       </c>
@@ -4019,7 +3834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M111" s="17" t="s">
         <v>23</v>
       </c>
@@ -4033,7 +3848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M112" s="17" t="s">
         <v>23</v>
       </c>
@@ -4047,7 +3862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M113" s="17" t="s">
         <v>21</v>
       </c>
@@ -4061,7 +3876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M114" s="17" t="s">
         <v>23</v>
       </c>
@@ -4075,7 +3890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M115" s="17" t="s">
         <v>23</v>
       </c>
@@ -4089,7 +3904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M116" s="17" t="s">
         <v>23</v>
       </c>
@@ -4103,7 +3918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M117" s="17" t="s">
         <v>23</v>
       </c>
@@ -4117,7 +3932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M118" s="17" t="s">
         <v>23</v>
       </c>
@@ -4131,7 +3946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M119" s="17" t="s">
         <v>23</v>
       </c>
@@ -4145,7 +3960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M120" s="17" t="s">
         <v>23</v>
       </c>
@@ -4159,7 +3974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M121" s="17" t="s">
         <v>23</v>
       </c>
@@ -4173,7 +3988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="13:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="13:16" ht="30" x14ac:dyDescent="0.25">
       <c r="M122" s="17" t="s">
         <v>23</v>
       </c>
@@ -4187,7 +4002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M123" s="17" t="s">
         <v>21</v>
       </c>
@@ -4201,7 +4016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M124" s="17" t="s">
         <v>21</v>
       </c>
@@ -4215,7 +4030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M125" s="17" t="s">
         <v>21</v>
       </c>
@@ -4229,7 +4044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M126" s="17" t="s">
         <v>21</v>
       </c>
@@ -4243,7 +4058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M127" s="17" t="s">
         <v>21</v>
       </c>
@@ -4257,7 +4072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M128" s="17" t="s">
         <v>21</v>
       </c>
@@ -4271,7 +4086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M129" s="17" t="s">
         <v>21</v>
       </c>
@@ -4285,7 +4100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M130" s="17" t="s">
         <v>21</v>
       </c>
@@ -4299,7 +4114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M131" s="17" t="s">
         <v>21</v>
       </c>
@@ -4313,7 +4128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M132" s="17" t="s">
         <v>21</v>
       </c>
@@ -4327,7 +4142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M133" s="17" t="s">
         <v>21</v>
       </c>
@@ -4341,7 +4156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M134" s="17" t="s">
         <v>21</v>
       </c>
@@ -4355,7 +4170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M135" s="17" t="s">
         <v>21</v>
       </c>
@@ -4369,7 +4184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M136" s="17" t="s">
         <v>21</v>
       </c>
@@ -4383,7 +4198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M137" s="17" t="s">
         <v>21</v>
       </c>
@@ -4397,7 +4212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M138" s="17" t="s">
         <v>21</v>
       </c>
@@ -4411,7 +4226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M139" s="17" t="s">
         <v>21</v>
       </c>
@@ -4425,7 +4240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M140" s="17" t="s">
         <v>21</v>
       </c>
@@ -4439,7 +4254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="17" t="s">
         <v>21</v>
       </c>
@@ -4453,7 +4268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M142" s="17" t="s">
         <v>21</v>
       </c>
@@ -4467,7 +4282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M143" s="17" t="s">
         <v>21</v>
       </c>
@@ -4481,7 +4296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M144" s="17" t="s">
         <v>21</v>
       </c>
@@ -4495,7 +4310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M145" s="17" t="s">
         <v>21</v>
       </c>
@@ -4509,7 +4324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M146" s="17" t="s">
         <v>21</v>
       </c>
@@ -4523,7 +4338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M147" s="17" t="s">
         <v>21</v>
       </c>
@@ -4537,7 +4352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M148" s="17" t="s">
         <v>21</v>
       </c>
@@ -4551,7 +4366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M149" s="17" t="s">
         <v>21</v>
       </c>
@@ -4565,7 +4380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M150" s="17" t="s">
         <v>21</v>
       </c>
@@ -4579,7 +4394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M151" s="17" t="s">
         <v>21</v>
       </c>
@@ -4593,7 +4408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M152" s="17" t="s">
         <v>21</v>
       </c>
@@ -4607,7 +4422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M153" s="17" t="s">
         <v>21</v>
       </c>
@@ -4621,7 +4436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M154" s="17" t="s">
         <v>21</v>
       </c>
@@ -4635,7 +4450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M155" s="17" t="s">
         <v>21</v>
       </c>
@@ -4649,7 +4464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="17" t="s">
         <v>21</v>
       </c>
@@ -4663,7 +4478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M157" s="17" t="s">
         <v>21</v>
       </c>
@@ -4677,7 +4492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M158" s="17" t="s">
         <v>21</v>
       </c>
@@ -4691,7 +4506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M159" s="17" t="s">
         <v>21</v>
       </c>
@@ -4705,7 +4520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M160" s="17" t="s">
         <v>21</v>
       </c>
@@ -4719,7 +4534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M161" s="17" t="s">
         <v>21</v>
       </c>
@@ -4733,7 +4548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M162" s="17" t="s">
         <v>21</v>
       </c>
@@ -4747,7 +4562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M163" s="17" t="s">
         <v>21</v>
       </c>
@@ -4761,7 +4576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M164" s="17" t="s">
         <v>21</v>
       </c>
@@ -4775,7 +4590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M165" s="17" t="s">
         <v>21</v>
       </c>
@@ -4789,7 +4604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M166" s="17" t="s">
         <v>21</v>
       </c>
@@ -4803,7 +4618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M167" s="17" t="s">
         <v>21</v>
       </c>
@@ -4817,7 +4632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M168" s="17" t="s">
         <v>21</v>
       </c>
@@ -4831,7 +4646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M169" s="17" t="s">
         <v>21</v>
       </c>
@@ -4845,7 +4660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M170" s="17" t="s">
         <v>21</v>
       </c>
@@ -4859,7 +4674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="17" t="s">
         <v>21</v>
       </c>
@@ -4873,7 +4688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M172" s="17" t="s">
         <v>21</v>
       </c>
@@ -4887,7 +4702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M173" s="17" t="s">
         <v>21</v>
       </c>
@@ -4901,7 +4716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M174" s="17" t="s">
         <v>21</v>
       </c>
@@ -4915,7 +4730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M175" s="17" t="s">
         <v>21</v>
       </c>
@@ -4929,7 +4744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M176" s="17" t="s">
         <v>21</v>
       </c>
@@ -4943,7 +4758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M177" s="17" t="s">
         <v>21</v>
       </c>
@@ -4957,7 +4772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M178" s="17" t="s">
         <v>21</v>
       </c>
@@ -4971,7 +4786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M179" s="17" t="s">
         <v>21</v>
       </c>
@@ -4985,7 +4800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M180" s="17" t="s">
         <v>21</v>
       </c>
@@ -4999,7 +4814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M181" s="17" t="s">
         <v>21</v>
       </c>
@@ -5013,7 +4828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M182" s="17" t="s">
         <v>21</v>
       </c>
@@ -5027,7 +4842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M183" s="17" t="s">
         <v>21</v>
       </c>
@@ -5041,7 +4856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M184" s="17" t="s">
         <v>21</v>
       </c>
@@ -5055,7 +4870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M185" s="17" t="s">
         <v>21</v>
       </c>
@@ -5069,7 +4884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M186" s="17" t="s">
         <v>21</v>
       </c>
@@ -5083,7 +4898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="187" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M187" s="17" t="s">
         <v>21</v>
       </c>
@@ -5097,7 +4912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M188" s="17" t="s">
         <v>21</v>
       </c>
@@ -5111,7 +4926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="17" t="s">
         <v>21</v>
       </c>
@@ -5125,7 +4940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="190" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M190" s="17" t="s">
         <v>21</v>
       </c>
@@ -5139,7 +4954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M191" s="17" t="s">
         <v>21</v>
       </c>
@@ -5153,7 +4968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M192" s="17" t="s">
         <v>21</v>
       </c>
@@ -5167,7 +4982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M193" s="17" t="s">
         <v>21</v>
       </c>
@@ -5181,7 +4996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M194" s="17" t="s">
         <v>21</v>
       </c>
@@ -5195,7 +5010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M195" s="17" t="s">
         <v>21</v>
       </c>
@@ -5209,7 +5024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="196" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M196" s="17" t="s">
         <v>21</v>
       </c>
@@ -5223,7 +5038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M197" s="17" t="s">
         <v>21</v>
       </c>
@@ -5237,7 +5052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M198" s="17" t="s">
         <v>21</v>
       </c>
@@ -5251,7 +5066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M199" s="17" t="s">
         <v>21</v>
       </c>
@@ -5265,7 +5080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M200" s="17" t="s">
         <v>21</v>
       </c>
@@ -5279,7 +5094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="201" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M201" s="17" t="s">
         <v>21</v>
       </c>
@@ -5293,7 +5108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M202" s="17" t="s">
         <v>21</v>
       </c>
@@ -5307,7 +5122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M203" s="17" t="s">
         <v>21</v>
       </c>
@@ -5321,7 +5136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M204" s="17" t="s">
         <v>21</v>
       </c>
@@ -5335,7 +5150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="205" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M205" s="17" t="s">
         <v>21</v>
       </c>
@@ -5349,7 +5164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="206" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M206" s="17" t="s">
         <v>21</v>
       </c>
@@ -5363,7 +5178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M207" s="17" t="s">
         <v>21</v>
       </c>
@@ -5377,7 +5192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M208" s="17" t="s">
         <v>21</v>
       </c>
@@ -5391,7 +5206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="209" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M209" s="17" t="s">
         <v>21</v>
       </c>
@@ -5405,7 +5220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M210" s="17" t="s">
         <v>21</v>
       </c>
@@ -5419,7 +5234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M211" s="17" t="s">
         <v>21</v>
       </c>
@@ -5433,7 +5248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M212" s="17" t="s">
         <v>21</v>
       </c>
@@ -5447,7 +5262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="13:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="13:16" ht="45" x14ac:dyDescent="0.25">
       <c r="M213" s="17" t="s">
         <v>21</v>
       </c>
@@ -5461,7 +5276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="13:16" x14ac:dyDescent="0.25">
       <c r="N214">
         <f>SUM(N2:N213)</f>
         <v>12889</v>
@@ -5480,12 +5295,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D1">
         <f>0.8^10</f>
         <v>0.10737418240000011</v>
@@ -5495,19 +5310,19 @@
         <v>0.10737418240000006</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O9">
         <f>9*8*7*6*5*4*3</f>
         <v>181440</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O10">
         <f>O9*7*6*5*4*3*2*1</f>
         <v>914457600</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>13</v>
       </c>
@@ -5515,7 +5330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>14</v>
       </c>

--- a/607.xlsx
+++ b/607.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A96331-6DDB-4193-9C9C-49280319D1CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE3C1E-DCA3-4F10-9E25-8E84F9B27AC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="51">
   <si>
     <t>Discussion</t>
   </si>
@@ -191,9 +191,6 @@
   <si>
     <t>Chapters</t>
   </si>
-  <si>
-    <t>ip</t>
-  </si>
 </sst>
 </file>
 
@@ -237,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -358,21 +355,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
@@ -390,17 +372,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,13 +426,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -474,32 +589,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A3414F-4276-4EFD-91C5-390C4822278B}">
-  <dimension ref="A2:Q32"/>
+  <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1313,7 @@
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
@@ -1236,7 +1360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>607</v>
       </c>
@@ -1299,8 +1423,11 @@
         <f>P3+7</f>
         <v>44332</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="22">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>8</v>
@@ -1347,10 +1474,10 @@
         <v>8</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>8</v>
@@ -1397,60 +1524,60 @@
         <v>8</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="9" t="s">
+      <c r="L6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1500,7 +1627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +1647,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -1533,25 +1660,25 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="5"/>
@@ -1566,7 +1693,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1575,10 +1702,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11"/>
       <c r="J11" s="6"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1588,7 +1715,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -1597,11 +1724,11 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="5"/>
@@ -1612,7 +1739,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1628,13 +1755,13 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1650,13 +1777,18 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="P14" s="4"/>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1673,131 +1805,131 @@
         <v>5</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>606</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="C17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="G17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="9" t="s">
+      <c r="M17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="C18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="G18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="9" t="s">
+      <c r="M18" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>8</v>
+      <c r="Q18" s="32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1816,16 +1948,16 @@
       <c r="J19" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="10" t="s">
+      <c r="L20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2143,28 +2275,28 @@
       </c>
     </row>
     <row r="22" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="20" t="s">
+      <c r="U22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="20" t="s">
+      <c r="V22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="W22" s="20" t="s">
+      <c r="W22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="X22" s="20" t="s">
+      <c r="X22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="Y22" s="20" t="s">
+      <c r="Y22" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2173,106 +2305,106 @@
         <f>6.5/6</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="S23" s="21" t="s">
+      <c r="S23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="20">
         <v>20641</v>
       </c>
-      <c r="U23" s="22">
-        <v>44265</v>
-      </c>
-      <c r="V23" s="21" t="s">
+      <c r="U23" s="20">
+        <v>44265</v>
+      </c>
+      <c r="V23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="X23" s="21" t="s">
+      <c r="W23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="X23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Y23" s="22">
+      <c r="Y23" s="20">
         <v>44266.36577989583</v>
       </c>
     </row>
     <row r="24" spans="6:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="R24" s="21" t="s">
+      <c r="R24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="S24" s="21" t="s">
+      <c r="S24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="20">
         <v>20704</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U24" s="20">
         <v>44253</v>
       </c>
-      <c r="V24" s="21" t="s">
+      <c r="V24" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="X24" s="21" t="s">
+      <c r="W24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Y24" s="22">
+      <c r="Y24" s="20">
         <v>44265.394097766199</v>
       </c>
     </row>
     <row r="25" spans="6:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="R25" s="21" t="s">
+      <c r="R25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="S25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="20">
         <v>34493</v>
       </c>
-      <c r="U25" s="22">
-        <v>44265</v>
-      </c>
-      <c r="V25" s="21" t="s">
+      <c r="U25" s="20">
+        <v>44265</v>
+      </c>
+      <c r="V25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="21" t="s">
+      <c r="W25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Y25" s="22">
+      <c r="Y25" s="20">
         <v>44266.375588425923</v>
       </c>
     </row>
     <row r="26" spans="6:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="S26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="20">
         <v>14407</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="20">
         <v>44236</v>
       </c>
-      <c r="V26" s="21" t="s">
+      <c r="V26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="X26" s="21" t="s">
+      <c r="W26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Y26" s="22">
+      <c r="Y26" s="20">
         <v>44245.487470833337</v>
       </c>
     </row>
@@ -2295,2984 +2427,2984 @@
   </cols>
   <sheetData>
     <row r="1" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="18">
+      <c r="M2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="16">
         <v>1</v>
       </c>
-      <c r="O2" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="O2" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="18">
+      <c r="M3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="16">
         <v>60</v>
       </c>
-      <c r="O3" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P3" s="17" t="s">
+      <c r="O3" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="18">
+      <c r="M4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="16">
         <v>60</v>
       </c>
-      <c r="O4" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P4" s="17" t="s">
+      <c r="O4" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="18">
-        <v>72</v>
-      </c>
-      <c r="O5" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P5" s="17" t="s">
+      <c r="M5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="16">
+        <v>72</v>
+      </c>
+      <c r="O5" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="18">
-        <v>72</v>
-      </c>
-      <c r="O6" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P6" s="17" t="s">
+      <c r="M6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="16">
+        <v>72</v>
+      </c>
+      <c r="O6" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="18">
-        <v>72</v>
-      </c>
-      <c r="O7" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P7" s="17" t="s">
+      <c r="M7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="16">
+        <v>72</v>
+      </c>
+      <c r="O7" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="18">
-        <v>72</v>
-      </c>
-      <c r="O8" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P8" s="17" t="s">
+      <c r="M8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="16">
+        <v>72</v>
+      </c>
+      <c r="O8" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="18">
-        <v>72</v>
-      </c>
-      <c r="O9" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P9" s="17" t="s">
+      <c r="M9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="16">
+        <v>72</v>
+      </c>
+      <c r="O9" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P9" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="18">
-        <v>72</v>
-      </c>
-      <c r="O10" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P10" s="17" t="s">
+      <c r="M10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="16">
+        <v>72</v>
+      </c>
+      <c r="O10" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P10" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="18">
-        <v>72</v>
-      </c>
-      <c r="O11" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P11" s="17" t="s">
+      <c r="M11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="16">
+        <v>72</v>
+      </c>
+      <c r="O11" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="18">
-        <v>72</v>
-      </c>
-      <c r="O12" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P12" s="17" t="s">
+      <c r="M12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="16">
+        <v>72</v>
+      </c>
+      <c r="O12" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="18">
-        <v>72</v>
-      </c>
-      <c r="O13" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P13" s="17" t="s">
+      <c r="M13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="16">
+        <v>72</v>
+      </c>
+      <c r="O13" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P13" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="18">
-        <v>72</v>
-      </c>
-      <c r="O14" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P14" s="17" t="s">
+      <c r="M14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="16">
+        <v>72</v>
+      </c>
+      <c r="O14" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P14" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="18">
-        <v>72</v>
-      </c>
-      <c r="O15" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P15" s="17" t="s">
+      <c r="M15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="16">
+        <v>72</v>
+      </c>
+      <c r="O15" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="18">
-        <v>72</v>
-      </c>
-      <c r="O16" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P16" s="17" t="s">
+      <c r="M16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="16">
+        <v>72</v>
+      </c>
+      <c r="O16" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P16" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="18">
-        <v>72</v>
-      </c>
-      <c r="O17" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P17" s="17" t="s">
+      <c r="M17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="16">
+        <v>72</v>
+      </c>
+      <c r="O17" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P17" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="18">
-        <v>72</v>
-      </c>
-      <c r="O18" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P18" s="17" t="s">
+      <c r="M18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="16">
+        <v>72</v>
+      </c>
+      <c r="O18" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P18" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="18">
-        <v>72</v>
-      </c>
-      <c r="O19" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P19" s="17" t="s">
+      <c r="M19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="16">
+        <v>72</v>
+      </c>
+      <c r="O19" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P19" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="18">
-        <v>72</v>
-      </c>
-      <c r="O20" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P20" s="17" t="s">
+      <c r="M20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="16">
+        <v>72</v>
+      </c>
+      <c r="O20" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P20" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="18">
-        <v>72</v>
-      </c>
-      <c r="O21" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P21" s="17" t="s">
+      <c r="M21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="16">
+        <v>72</v>
+      </c>
+      <c r="O21" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P21" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="18">
-        <v>72</v>
-      </c>
-      <c r="O22" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P22" s="17" t="s">
+      <c r="M22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="16">
+        <v>72</v>
+      </c>
+      <c r="O22" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P22" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="18">
-        <v>72</v>
-      </c>
-      <c r="O23" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P23" s="17" t="s">
+      <c r="M23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="16">
+        <v>72</v>
+      </c>
+      <c r="O23" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P23" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="18">
-        <v>48</v>
-      </c>
-      <c r="O24" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P24" s="17" t="s">
+      <c r="M24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="16">
+        <v>48</v>
+      </c>
+      <c r="O24" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P24" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="18">
-        <v>48</v>
-      </c>
-      <c r="O25" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P25" s="17" t="s">
+      <c r="M25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="16">
+        <v>48</v>
+      </c>
+      <c r="O25" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P25" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="18">
-        <v>48</v>
-      </c>
-      <c r="O26" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P26" s="17" t="s">
+      <c r="M26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="16">
+        <v>48</v>
+      </c>
+      <c r="O26" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P26" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="18">
-        <v>48</v>
-      </c>
-      <c r="O27" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P27" s="17" t="s">
+      <c r="M27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="16">
+        <v>48</v>
+      </c>
+      <c r="O27" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P27" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="18">
-        <v>48</v>
-      </c>
-      <c r="O28" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P28" s="17" t="s">
+      <c r="M28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="16">
+        <v>48</v>
+      </c>
+      <c r="O28" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P28" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="18">
-        <v>48</v>
-      </c>
-      <c r="O29" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P29" s="17" t="s">
+      <c r="M29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="16">
+        <v>48</v>
+      </c>
+      <c r="O29" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P29" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="18">
-        <v>48</v>
-      </c>
-      <c r="O30" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P30" s="17" t="s">
+      <c r="M30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="16">
+        <v>48</v>
+      </c>
+      <c r="O30" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P30" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="18">
-        <v>48</v>
-      </c>
-      <c r="O31" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P31" s="17" t="s">
+      <c r="M31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="16">
+        <v>48</v>
+      </c>
+      <c r="O31" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P31" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M32" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="18">
-        <v>48</v>
-      </c>
-      <c r="O32" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P32" s="17" t="s">
+      <c r="M32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="16">
+        <v>48</v>
+      </c>
+      <c r="O32" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P32" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M33" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="18">
-        <v>48</v>
-      </c>
-      <c r="O33" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P33" s="17" t="s">
+      <c r="M33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="16">
+        <v>48</v>
+      </c>
+      <c r="O33" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P33" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M34" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="18">
-        <v>48</v>
-      </c>
-      <c r="O34" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P34" s="17" t="s">
+      <c r="M34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="16">
+        <v>48</v>
+      </c>
+      <c r="O34" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P34" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M35" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="18">
-        <v>48</v>
-      </c>
-      <c r="O35" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P35" s="17" t="s">
+      <c r="M35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="16">
+        <v>48</v>
+      </c>
+      <c r="O35" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P35" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M36" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="18">
-        <v>48</v>
-      </c>
-      <c r="O36" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P36" s="17" t="s">
+      <c r="M36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="16">
+        <v>48</v>
+      </c>
+      <c r="O36" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P36" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M37" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="18">
-        <v>48</v>
-      </c>
-      <c r="O37" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P37" s="17" t="s">
+      <c r="M37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="16">
+        <v>48</v>
+      </c>
+      <c r="O37" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P37" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M38" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="18">
-        <v>48</v>
-      </c>
-      <c r="O38" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P38" s="17" t="s">
+      <c r="M38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="16">
+        <v>48</v>
+      </c>
+      <c r="O38" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P38" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M39" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="18">
-        <v>48</v>
-      </c>
-      <c r="O39" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P39" s="17" t="s">
+      <c r="M39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="16">
+        <v>48</v>
+      </c>
+      <c r="O39" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P39" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M40" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="18">
-        <v>48</v>
-      </c>
-      <c r="O40" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P40" s="17" t="s">
+      <c r="M40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="16">
+        <v>48</v>
+      </c>
+      <c r="O40" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P40" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M41" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="18">
-        <v>48</v>
-      </c>
-      <c r="O41" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P41" s="17" t="s">
+      <c r="M41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="16">
+        <v>48</v>
+      </c>
+      <c r="O41" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P41" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M42" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="18">
-        <v>48</v>
-      </c>
-      <c r="O42" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P42" s="17" t="s">
+      <c r="M42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="16">
+        <v>48</v>
+      </c>
+      <c r="O42" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P42" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M43" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="18">
-        <v>48</v>
-      </c>
-      <c r="O43" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P43" s="17" t="s">
+      <c r="M43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="16">
+        <v>48</v>
+      </c>
+      <c r="O43" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P43" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M44" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="18">
-        <v>48</v>
-      </c>
-      <c r="O44" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P44" s="17" t="s">
+      <c r="M44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="16">
+        <v>48</v>
+      </c>
+      <c r="O44" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P44" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M45" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="18">
-        <v>48</v>
-      </c>
-      <c r="O45" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P45" s="17" t="s">
+      <c r="M45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="16">
+        <v>48</v>
+      </c>
+      <c r="O45" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P45" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M46" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" s="18">
-        <v>48</v>
-      </c>
-      <c r="O46" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P46" s="17" t="s">
+      <c r="M46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="16">
+        <v>48</v>
+      </c>
+      <c r="O46" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P46" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M47" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="18">
-        <v>48</v>
-      </c>
-      <c r="O47" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P47" s="17" t="s">
+      <c r="M47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="16">
+        <v>48</v>
+      </c>
+      <c r="O47" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P47" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M48" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" s="18">
-        <v>48</v>
-      </c>
-      <c r="O48" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P48" s="17" t="s">
+      <c r="M48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="16">
+        <v>48</v>
+      </c>
+      <c r="O48" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P48" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M49" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" s="18">
-        <v>48</v>
-      </c>
-      <c r="O49" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P49" s="17" t="s">
+      <c r="M49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="16">
+        <v>48</v>
+      </c>
+      <c r="O49" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P49" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M50" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N50" s="18">
-        <v>48</v>
-      </c>
-      <c r="O50" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P50" s="17" t="s">
+      <c r="M50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="16">
+        <v>48</v>
+      </c>
+      <c r="O50" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P50" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M51" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N51" s="18">
-        <v>48</v>
-      </c>
-      <c r="O51" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P51" s="17" t="s">
+      <c r="M51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="16">
+        <v>48</v>
+      </c>
+      <c r="O51" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P51" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M52" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N52" s="18">
-        <v>48</v>
-      </c>
-      <c r="O52" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P52" s="17" t="s">
+      <c r="M52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="16">
+        <v>48</v>
+      </c>
+      <c r="O52" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P52" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M53" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N53" s="18">
-        <v>48</v>
-      </c>
-      <c r="O53" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P53" s="17" t="s">
+      <c r="M53" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="16">
+        <v>48</v>
+      </c>
+      <c r="O53" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P53" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M54" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N54" s="18">
-        <v>48</v>
-      </c>
-      <c r="O54" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P54" s="17" t="s">
+      <c r="M54" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="16">
+        <v>48</v>
+      </c>
+      <c r="O54" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P54" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M55" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N55" s="18">
-        <v>48</v>
-      </c>
-      <c r="O55" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P55" s="17" t="s">
+      <c r="M55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="16">
+        <v>48</v>
+      </c>
+      <c r="O55" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P55" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M56" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="18">
-        <v>48</v>
-      </c>
-      <c r="O56" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P56" s="17" t="s">
+      <c r="M56" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="16">
+        <v>48</v>
+      </c>
+      <c r="O56" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P56" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M57" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57" s="18">
-        <v>48</v>
-      </c>
-      <c r="O57" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P57" s="17" t="s">
+      <c r="M57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="16">
+        <v>48</v>
+      </c>
+      <c r="O57" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P57" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M58" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N58" s="18">
-        <v>48</v>
-      </c>
-      <c r="O58" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P58" s="17" t="s">
+      <c r="M58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="16">
+        <v>48</v>
+      </c>
+      <c r="O58" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P58" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M59" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N59" s="18">
-        <v>48</v>
-      </c>
-      <c r="O59" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P59" s="17" t="s">
+      <c r="M59" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="16">
+        <v>48</v>
+      </c>
+      <c r="O59" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P59" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M60" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N60" s="18">
-        <v>48</v>
-      </c>
-      <c r="O60" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P60" s="17" t="s">
+      <c r="M60" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="16">
+        <v>48</v>
+      </c>
+      <c r="O60" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P60" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="61" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M61" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N61" s="18">
-        <v>48</v>
-      </c>
-      <c r="O61" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P61" s="17" t="s">
+      <c r="M61" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="16">
+        <v>48</v>
+      </c>
+      <c r="O61" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P61" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M62" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N62" s="18">
-        <v>48</v>
-      </c>
-      <c r="O62" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P62" s="17" t="s">
+      <c r="M62" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="16">
+        <v>48</v>
+      </c>
+      <c r="O62" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P62" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M63" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N63" s="18">
-        <v>48</v>
-      </c>
-      <c r="O63" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P63" s="17" t="s">
+      <c r="M63" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="16">
+        <v>48</v>
+      </c>
+      <c r="O63" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P63" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="64" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M64" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N64" s="18">
-        <v>48</v>
-      </c>
-      <c r="O64" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P64" s="17" t="s">
+      <c r="M64" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="16">
+        <v>48</v>
+      </c>
+      <c r="O64" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P64" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M65" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N65" s="18">
-        <v>48</v>
-      </c>
-      <c r="O65" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P65" s="17" t="s">
+      <c r="M65" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="16">
+        <v>48</v>
+      </c>
+      <c r="O65" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P65" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M66" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N66" s="18">
-        <v>48</v>
-      </c>
-      <c r="O66" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P66" s="17" t="s">
+      <c r="M66" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="16">
+        <v>48</v>
+      </c>
+      <c r="O66" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P66" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M67" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N67" s="18">
-        <v>48</v>
-      </c>
-      <c r="O67" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P67" s="17" t="s">
+      <c r="M67" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="16">
+        <v>48</v>
+      </c>
+      <c r="O67" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P67" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M68" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="18">
-        <v>48</v>
-      </c>
-      <c r="O68" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P68" s="17" t="s">
+      <c r="M68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="16">
+        <v>48</v>
+      </c>
+      <c r="O68" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P68" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M69" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N69" s="18">
-        <v>48</v>
-      </c>
-      <c r="O69" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P69" s="17" t="s">
+      <c r="M69" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" s="16">
+        <v>48</v>
+      </c>
+      <c r="O69" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P69" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M70" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N70" s="18">
-        <v>48</v>
-      </c>
-      <c r="O70" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P70" s="17" t="s">
+      <c r="M70" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="16">
+        <v>48</v>
+      </c>
+      <c r="O70" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P70" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M71" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N71" s="18">
-        <v>48</v>
-      </c>
-      <c r="O71" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P71" s="17" t="s">
+      <c r="M71" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="16">
+        <v>48</v>
+      </c>
+      <c r="O71" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P71" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="72" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M72" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N72" s="18">
-        <v>48</v>
-      </c>
-      <c r="O72" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P72" s="17" t="s">
+      <c r="M72" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="16">
+        <v>48</v>
+      </c>
+      <c r="O72" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P72" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="73" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M73" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N73" s="18">
-        <v>48</v>
-      </c>
-      <c r="O73" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P73" s="17" t="s">
+      <c r="M73" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="16">
+        <v>48</v>
+      </c>
+      <c r="O73" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P73" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M74" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N74" s="18">
-        <v>48</v>
-      </c>
-      <c r="O74" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P74" s="17" t="s">
+      <c r="M74" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="16">
+        <v>48</v>
+      </c>
+      <c r="O74" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P74" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="75" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M75" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N75" s="18">
-        <v>48</v>
-      </c>
-      <c r="O75" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P75" s="17" t="s">
+      <c r="M75" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="16">
+        <v>48</v>
+      </c>
+      <c r="O75" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P75" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="76" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M76" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N76" s="18">
-        <v>48</v>
-      </c>
-      <c r="O76" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P76" s="17" t="s">
+      <c r="M76" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" s="16">
+        <v>48</v>
+      </c>
+      <c r="O76" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P76" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="77" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M77" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N77" s="18">
-        <v>48</v>
-      </c>
-      <c r="O77" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P77" s="17" t="s">
+      <c r="M77" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="16">
+        <v>48</v>
+      </c>
+      <c r="O77" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P77" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M78" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N78" s="18">
-        <v>48</v>
-      </c>
-      <c r="O78" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P78" s="17" t="s">
+      <c r="M78" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="16">
+        <v>48</v>
+      </c>
+      <c r="O78" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P78" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="79" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M79" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N79" s="18">
-        <v>48</v>
-      </c>
-      <c r="O79" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P79" s="17" t="s">
+      <c r="M79" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" s="16">
+        <v>48</v>
+      </c>
+      <c r="O79" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P79" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="80" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M80" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N80" s="18">
-        <v>48</v>
-      </c>
-      <c r="O80" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P80" s="17" t="s">
+      <c r="M80" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" s="16">
+        <v>48</v>
+      </c>
+      <c r="O80" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P80" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="81" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M81" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N81" s="18">
-        <v>48</v>
-      </c>
-      <c r="O81" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P81" s="17" t="s">
+      <c r="M81" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="16">
+        <v>48</v>
+      </c>
+      <c r="O81" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P81" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="82" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M82" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N82" s="18">
-        <v>48</v>
-      </c>
-      <c r="O82" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P82" s="17" t="s">
+      <c r="M82" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="16">
+        <v>48</v>
+      </c>
+      <c r="O82" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P82" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="83" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M83" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N83" s="18">
-        <v>48</v>
-      </c>
-      <c r="O83" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P83" s="17" t="s">
+      <c r="M83" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83" s="16">
+        <v>48</v>
+      </c>
+      <c r="O83" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P83" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="84" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M84" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N84" s="18">
-        <v>48</v>
-      </c>
-      <c r="O84" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P84" s="17" t="s">
+      <c r="M84" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84" s="16">
+        <v>48</v>
+      </c>
+      <c r="O84" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P84" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="85" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M85" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N85" s="18">
-        <v>48</v>
-      </c>
-      <c r="O85" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P85" s="17" t="s">
+      <c r="M85" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N85" s="16">
+        <v>48</v>
+      </c>
+      <c r="O85" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P85" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M86" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N86" s="18">
-        <v>48</v>
-      </c>
-      <c r="O86" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P86" s="17" t="s">
+      <c r="M86" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" s="16">
+        <v>48</v>
+      </c>
+      <c r="O86" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P86" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="87" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M87" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N87" s="18">
-        <v>48</v>
-      </c>
-      <c r="O87" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P87" s="17" t="s">
+      <c r="M87" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87" s="16">
+        <v>48</v>
+      </c>
+      <c r="O87" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P87" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="88" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M88" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N88" s="18">
-        <v>48</v>
-      </c>
-      <c r="O88" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P88" s="17" t="s">
+      <c r="M88" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="16">
+        <v>48</v>
+      </c>
+      <c r="O88" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P88" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="89" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M89" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N89" s="18">
-        <v>48</v>
-      </c>
-      <c r="O89" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P89" s="17" t="s">
+      <c r="M89" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89" s="16">
+        <v>48</v>
+      </c>
+      <c r="O89" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P89" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="90" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M90" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N90" s="18">
-        <v>48</v>
-      </c>
-      <c r="O90" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P90" s="17" t="s">
+      <c r="M90" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90" s="16">
+        <v>48</v>
+      </c>
+      <c r="O90" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P90" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="91" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M91" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N91" s="18">
-        <v>48</v>
-      </c>
-      <c r="O91" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P91" s="17" t="s">
+      <c r="M91" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91" s="16">
+        <v>48</v>
+      </c>
+      <c r="O91" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P91" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="92" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M92" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N92" s="18">
-        <v>48</v>
-      </c>
-      <c r="O92" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P92" s="17" t="s">
+      <c r="M92" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="16">
+        <v>48</v>
+      </c>
+      <c r="O92" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P92" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="93" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M93" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N93" s="18">
-        <v>72</v>
-      </c>
-      <c r="O93" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P93" s="17" t="s">
+      <c r="M93" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" s="16">
+        <v>72</v>
+      </c>
+      <c r="O93" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P93" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M94" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N94" s="18">
-        <v>48</v>
-      </c>
-      <c r="O94" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P94" s="17" t="s">
+      <c r="M94" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94" s="16">
+        <v>48</v>
+      </c>
+      <c r="O94" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P94" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="95" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M95" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N95" s="18">
-        <v>48</v>
-      </c>
-      <c r="O95" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P95" s="17" t="s">
+      <c r="M95" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95" s="16">
+        <v>48</v>
+      </c>
+      <c r="O95" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P95" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M96" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N96" s="18">
-        <v>48</v>
-      </c>
-      <c r="O96" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P96" s="17" t="s">
+      <c r="M96" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" s="16">
+        <v>48</v>
+      </c>
+      <c r="O96" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P96" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="97" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M97" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N97" s="18">
-        <v>48</v>
-      </c>
-      <c r="O97" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P97" s="17" t="s">
+      <c r="M97" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" s="16">
+        <v>48</v>
+      </c>
+      <c r="O97" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P97" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="98" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M98" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N98" s="18">
-        <v>48</v>
-      </c>
-      <c r="O98" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P98" s="17" t="s">
+      <c r="M98" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N98" s="16">
+        <v>48</v>
+      </c>
+      <c r="O98" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P98" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="99" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M99" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N99" s="18">
-        <v>48</v>
-      </c>
-      <c r="O99" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P99" s="17" t="s">
+      <c r="M99" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N99" s="16">
+        <v>48</v>
+      </c>
+      <c r="O99" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P99" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="100" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M100" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N100" s="18">
-        <v>48</v>
-      </c>
-      <c r="O100" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P100" s="17" t="s">
+      <c r="M100" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N100" s="16">
+        <v>48</v>
+      </c>
+      <c r="O100" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P100" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="101" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M101" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N101" s="18">
-        <v>48</v>
-      </c>
-      <c r="O101" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P101" s="17" t="s">
+      <c r="M101" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N101" s="16">
+        <v>48</v>
+      </c>
+      <c r="O101" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P101" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="102" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M102" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N102" s="18">
-        <v>72</v>
-      </c>
-      <c r="O102" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P102" s="17" t="s">
+      <c r="M102" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N102" s="16">
+        <v>72</v>
+      </c>
+      <c r="O102" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P102" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="103" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M103" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N103" s="18">
-        <v>48</v>
-      </c>
-      <c r="O103" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P103" s="17" t="s">
+      <c r="M103" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N103" s="16">
+        <v>48</v>
+      </c>
+      <c r="O103" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P103" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="104" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M104" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N104" s="18">
-        <v>48</v>
-      </c>
-      <c r="O104" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P104" s="17" t="s">
+      <c r="M104" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N104" s="16">
+        <v>48</v>
+      </c>
+      <c r="O104" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P104" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="105" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M105" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N105" s="18">
-        <v>48</v>
-      </c>
-      <c r="O105" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P105" s="17" t="s">
+      <c r="M105" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N105" s="16">
+        <v>48</v>
+      </c>
+      <c r="O105" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P105" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="106" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M106" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N106" s="18">
-        <v>48</v>
-      </c>
-      <c r="O106" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P106" s="17" t="s">
+      <c r="M106" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N106" s="16">
+        <v>48</v>
+      </c>
+      <c r="O106" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P106" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="107" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M107" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N107" s="18">
-        <v>48</v>
-      </c>
-      <c r="O107" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P107" s="17" t="s">
+      <c r="M107" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N107" s="16">
+        <v>48</v>
+      </c>
+      <c r="O107" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P107" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="108" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M108" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N108" s="18">
-        <v>72</v>
-      </c>
-      <c r="O108" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P108" s="17" t="s">
+      <c r="M108" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N108" s="16">
+        <v>72</v>
+      </c>
+      <c r="O108" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P108" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="109" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M109" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N109" s="18">
-        <v>48</v>
-      </c>
-      <c r="O109" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P109" s="17" t="s">
+      <c r="M109" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N109" s="16">
+        <v>48</v>
+      </c>
+      <c r="O109" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P109" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="110" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M110" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N110" s="18">
-        <v>48</v>
-      </c>
-      <c r="O110" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P110" s="17" t="s">
+      <c r="M110" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N110" s="16">
+        <v>48</v>
+      </c>
+      <c r="O110" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P110" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="111" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M111" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N111" s="18">
-        <v>48</v>
-      </c>
-      <c r="O111" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P111" s="17" t="s">
+      <c r="M111" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N111" s="16">
+        <v>48</v>
+      </c>
+      <c r="O111" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P111" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="112" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M112" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N112" s="18">
-        <v>48</v>
-      </c>
-      <c r="O112" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P112" s="17" t="s">
+      <c r="M112" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N112" s="16">
+        <v>48</v>
+      </c>
+      <c r="O112" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P112" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="113" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M113" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N113" s="18">
-        <v>72</v>
-      </c>
-      <c r="O113" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P113" s="17" t="s">
+      <c r="M113" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N113" s="16">
+        <v>72</v>
+      </c>
+      <c r="O113" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P113" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="114" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M114" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N114" s="18">
-        <v>48</v>
-      </c>
-      <c r="O114" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P114" s="17" t="s">
+      <c r="M114" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N114" s="16">
+        <v>48</v>
+      </c>
+      <c r="O114" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P114" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="115" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M115" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N115" s="18">
-        <v>48</v>
-      </c>
-      <c r="O115" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P115" s="17" t="s">
+      <c r="M115" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N115" s="16">
+        <v>48</v>
+      </c>
+      <c r="O115" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P115" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="116" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M116" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N116" s="18">
-        <v>48</v>
-      </c>
-      <c r="O116" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P116" s="17" t="s">
+      <c r="M116" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N116" s="16">
+        <v>48</v>
+      </c>
+      <c r="O116" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P116" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="117" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M117" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N117" s="18">
-        <v>48</v>
-      </c>
-      <c r="O117" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P117" s="17" t="s">
+      <c r="M117" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N117" s="16">
+        <v>48</v>
+      </c>
+      <c r="O117" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P117" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="118" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M118" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N118" s="18">
-        <v>48</v>
-      </c>
-      <c r="O118" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P118" s="17" t="s">
+      <c r="M118" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N118" s="16">
+        <v>48</v>
+      </c>
+      <c r="O118" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P118" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="119" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M119" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N119" s="18">
-        <v>48</v>
-      </c>
-      <c r="O119" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P119" s="17" t="s">
+      <c r="M119" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N119" s="16">
+        <v>48</v>
+      </c>
+      <c r="O119" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P119" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="120" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M120" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N120" s="18">
-        <v>48</v>
-      </c>
-      <c r="O120" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P120" s="17" t="s">
+      <c r="M120" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N120" s="16">
+        <v>48</v>
+      </c>
+      <c r="O120" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P120" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="121" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M121" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N121" s="18">
-        <v>48</v>
-      </c>
-      <c r="O121" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P121" s="17" t="s">
+      <c r="M121" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121" s="16">
+        <v>48</v>
+      </c>
+      <c r="O121" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P121" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="122" spans="13:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="M122" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N122" s="18">
-        <v>48</v>
-      </c>
-      <c r="O122" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P122" s="17" t="s">
+      <c r="M122" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N122" s="16">
+        <v>48</v>
+      </c>
+      <c r="O122" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P122" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="123" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M123" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N123" s="18">
-        <v>72</v>
-      </c>
-      <c r="O123" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P123" s="17" t="s">
+      <c r="M123" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N123" s="16">
+        <v>72</v>
+      </c>
+      <c r="O123" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P123" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="124" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M124" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N124" s="18">
-        <v>72</v>
-      </c>
-      <c r="O124" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P124" s="17" t="s">
+      <c r="M124" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N124" s="16">
+        <v>72</v>
+      </c>
+      <c r="O124" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P124" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="125" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M125" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N125" s="18">
-        <v>72</v>
-      </c>
-      <c r="O125" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P125" s="17" t="s">
+      <c r="M125" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N125" s="16">
+        <v>72</v>
+      </c>
+      <c r="O125" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P125" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="126" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M126" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N126" s="18">
-        <v>72</v>
-      </c>
-      <c r="O126" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P126" s="17" t="s">
+      <c r="M126" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="16">
+        <v>72</v>
+      </c>
+      <c r="O126" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P126" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="127" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M127" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N127" s="18">
-        <v>72</v>
-      </c>
-      <c r="O127" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P127" s="17" t="s">
+      <c r="M127" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N127" s="16">
+        <v>72</v>
+      </c>
+      <c r="O127" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P127" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="128" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M128" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N128" s="18">
-        <v>72</v>
-      </c>
-      <c r="O128" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P128" s="17" t="s">
+      <c r="M128" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N128" s="16">
+        <v>72</v>
+      </c>
+      <c r="O128" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P128" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M129" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N129" s="18">
-        <v>72</v>
-      </c>
-      <c r="O129" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P129" s="17" t="s">
+      <c r="M129" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="16">
+        <v>72</v>
+      </c>
+      <c r="O129" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P129" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="130" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M130" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N130" s="18">
-        <v>72</v>
-      </c>
-      <c r="O130" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P130" s="17" t="s">
+      <c r="M130" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" s="16">
+        <v>72</v>
+      </c>
+      <c r="O130" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P130" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="131" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M131" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N131" s="18">
-        <v>72</v>
-      </c>
-      <c r="O131" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P131" s="17" t="s">
+      <c r="M131" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N131" s="16">
+        <v>72</v>
+      </c>
+      <c r="O131" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P131" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="132" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M132" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N132" s="18">
-        <v>72</v>
-      </c>
-      <c r="O132" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P132" s="17" t="s">
+      <c r="M132" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" s="16">
+        <v>72</v>
+      </c>
+      <c r="O132" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P132" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="133" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M133" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N133" s="18">
-        <v>72</v>
-      </c>
-      <c r="O133" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P133" s="17" t="s">
+      <c r="M133" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N133" s="16">
+        <v>72</v>
+      </c>
+      <c r="O133" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P133" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="134" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M134" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N134" s="18">
-        <v>72</v>
-      </c>
-      <c r="O134" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P134" s="17" t="s">
+      <c r="M134" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N134" s="16">
+        <v>72</v>
+      </c>
+      <c r="O134" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P134" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="135" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M135" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N135" s="18">
-        <v>72</v>
-      </c>
-      <c r="O135" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P135" s="17" t="s">
+      <c r="M135" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N135" s="16">
+        <v>72</v>
+      </c>
+      <c r="O135" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P135" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="136" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M136" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N136" s="18">
-        <v>72</v>
-      </c>
-      <c r="O136" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P136" s="17" t="s">
+      <c r="M136" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="16">
+        <v>72</v>
+      </c>
+      <c r="O136" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P136" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="137" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M137" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N137" s="18">
-        <v>72</v>
-      </c>
-      <c r="O137" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P137" s="17" t="s">
+      <c r="M137" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" s="16">
+        <v>72</v>
+      </c>
+      <c r="O137" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P137" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="138" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M138" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N138" s="18">
-        <v>72</v>
-      </c>
-      <c r="O138" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P138" s="17" t="s">
+      <c r="M138" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N138" s="16">
+        <v>72</v>
+      </c>
+      <c r="O138" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P138" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="139" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M139" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N139" s="18">
-        <v>72</v>
-      </c>
-      <c r="O139" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P139" s="17" t="s">
+      <c r="M139" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N139" s="16">
+        <v>72</v>
+      </c>
+      <c r="O139" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P139" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="140" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M140" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N140" s="18">
-        <v>72</v>
-      </c>
-      <c r="O140" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P140" s="17" t="s">
+      <c r="M140" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N140" s="16">
+        <v>72</v>
+      </c>
+      <c r="O140" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P140" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="141" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M141" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N141" s="18">
-        <v>72</v>
-      </c>
-      <c r="O141" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P141" s="17" t="s">
+      <c r="M141" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N141" s="16">
+        <v>72</v>
+      </c>
+      <c r="O141" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P141" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="142" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M142" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N142" s="18">
-        <v>72</v>
-      </c>
-      <c r="O142" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P142" s="17" t="s">
+      <c r="M142" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N142" s="16">
+        <v>72</v>
+      </c>
+      <c r="O142" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P142" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="143" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M143" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N143" s="18">
-        <v>72</v>
-      </c>
-      <c r="O143" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P143" s="17" t="s">
+      <c r="M143" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N143" s="16">
+        <v>72</v>
+      </c>
+      <c r="O143" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P143" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="144" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M144" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N144" s="18">
-        <v>72</v>
-      </c>
-      <c r="O144" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P144" s="17" t="s">
+      <c r="M144" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N144" s="16">
+        <v>72</v>
+      </c>
+      <c r="O144" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P144" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="145" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M145" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N145" s="18">
-        <v>72</v>
-      </c>
-      <c r="O145" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P145" s="17" t="s">
+      <c r="M145" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" s="16">
+        <v>72</v>
+      </c>
+      <c r="O145" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P145" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="146" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M146" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N146" s="18">
-        <v>72</v>
-      </c>
-      <c r="O146" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P146" s="17" t="s">
+      <c r="M146" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N146" s="16">
+        <v>72</v>
+      </c>
+      <c r="O146" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P146" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="147" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M147" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N147" s="18">
-        <v>72</v>
-      </c>
-      <c r="O147" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P147" s="17" t="s">
+      <c r="M147" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N147" s="16">
+        <v>72</v>
+      </c>
+      <c r="O147" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P147" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="148" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M148" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N148" s="18">
-        <v>72</v>
-      </c>
-      <c r="O148" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P148" s="17" t="s">
+      <c r="M148" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N148" s="16">
+        <v>72</v>
+      </c>
+      <c r="O148" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P148" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="149" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M149" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N149" s="18">
-        <v>72</v>
-      </c>
-      <c r="O149" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P149" s="17" t="s">
+      <c r="M149" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N149" s="16">
+        <v>72</v>
+      </c>
+      <c r="O149" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P149" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="150" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M150" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N150" s="18">
-        <v>72</v>
-      </c>
-      <c r="O150" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P150" s="17" t="s">
+      <c r="M150" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N150" s="16">
+        <v>72</v>
+      </c>
+      <c r="O150" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P150" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M151" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N151" s="18">
-        <v>72</v>
-      </c>
-      <c r="O151" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P151" s="17" t="s">
+      <c r="M151" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N151" s="16">
+        <v>72</v>
+      </c>
+      <c r="O151" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P151" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="152" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M152" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N152" s="18">
-        <v>72</v>
-      </c>
-      <c r="O152" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P152" s="17" t="s">
+      <c r="M152" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N152" s="16">
+        <v>72</v>
+      </c>
+      <c r="O152" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P152" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="153" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M153" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N153" s="18">
-        <v>72</v>
-      </c>
-      <c r="O153" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P153" s="17" t="s">
+      <c r="M153" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N153" s="16">
+        <v>72</v>
+      </c>
+      <c r="O153" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P153" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="154" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M154" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N154" s="18">
-        <v>72</v>
-      </c>
-      <c r="O154" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P154" s="17" t="s">
+      <c r="M154" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N154" s="16">
+        <v>72</v>
+      </c>
+      <c r="O154" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P154" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="155" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M155" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N155" s="18">
-        <v>72</v>
-      </c>
-      <c r="O155" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P155" s="17" t="s">
+      <c r="M155" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N155" s="16">
+        <v>72</v>
+      </c>
+      <c r="O155" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P155" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="156" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M156" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N156" s="18">
-        <v>72</v>
-      </c>
-      <c r="O156" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P156" s="17" t="s">
+      <c r="M156" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="16">
+        <v>72</v>
+      </c>
+      <c r="O156" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P156" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="157" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M157" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N157" s="18">
-        <v>72</v>
-      </c>
-      <c r="O157" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P157" s="17" t="s">
+      <c r="M157" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="16">
+        <v>72</v>
+      </c>
+      <c r="O157" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P157" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="158" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M158" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N158" s="18">
-        <v>72</v>
-      </c>
-      <c r="O158" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P158" s="17" t="s">
+      <c r="M158" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N158" s="16">
+        <v>72</v>
+      </c>
+      <c r="O158" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P158" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="159" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M159" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N159" s="18">
-        <v>72</v>
-      </c>
-      <c r="O159" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P159" s="17" t="s">
+      <c r="M159" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N159" s="16">
+        <v>72</v>
+      </c>
+      <c r="O159" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P159" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="160" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M160" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N160" s="18">
-        <v>72</v>
-      </c>
-      <c r="O160" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P160" s="17" t="s">
+      <c r="M160" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="16">
+        <v>72</v>
+      </c>
+      <c r="O160" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P160" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="161" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M161" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N161" s="18">
-        <v>72</v>
-      </c>
-      <c r="O161" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P161" s="17" t="s">
+      <c r="M161" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N161" s="16">
+        <v>72</v>
+      </c>
+      <c r="O161" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P161" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="162" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M162" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N162" s="18">
-        <v>72</v>
-      </c>
-      <c r="O162" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P162" s="17" t="s">
+      <c r="M162" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" s="16">
+        <v>72</v>
+      </c>
+      <c r="O162" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P162" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="163" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M163" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N163" s="18">
-        <v>72</v>
-      </c>
-      <c r="O163" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P163" s="17" t="s">
+      <c r="M163" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N163" s="16">
+        <v>72</v>
+      </c>
+      <c r="O163" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P163" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="164" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M164" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N164" s="18">
-        <v>72</v>
-      </c>
-      <c r="O164" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P164" s="17" t="s">
+      <c r="M164" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N164" s="16">
+        <v>72</v>
+      </c>
+      <c r="O164" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P164" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="165" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M165" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N165" s="18">
-        <v>72</v>
-      </c>
-      <c r="O165" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P165" s="17" t="s">
+      <c r="M165" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N165" s="16">
+        <v>72</v>
+      </c>
+      <c r="O165" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P165" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="166" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M166" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N166" s="18">
-        <v>72</v>
-      </c>
-      <c r="O166" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P166" s="17" t="s">
+      <c r="M166" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N166" s="16">
+        <v>72</v>
+      </c>
+      <c r="O166" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P166" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="167" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M167" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N167" s="18">
-        <v>72</v>
-      </c>
-      <c r="O167" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P167" s="17" t="s">
+      <c r="M167" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N167" s="16">
+        <v>72</v>
+      </c>
+      <c r="O167" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P167" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="168" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M168" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N168" s="18">
-        <v>72</v>
-      </c>
-      <c r="O168" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P168" s="17" t="s">
+      <c r="M168" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N168" s="16">
+        <v>72</v>
+      </c>
+      <c r="O168" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P168" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M169" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N169" s="18">
-        <v>72</v>
-      </c>
-      <c r="O169" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P169" s="17" t="s">
+      <c r="M169" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N169" s="16">
+        <v>72</v>
+      </c>
+      <c r="O169" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P169" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="170" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M170" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N170" s="18">
-        <v>72</v>
-      </c>
-      <c r="O170" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P170" s="17" t="s">
+      <c r="M170" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N170" s="16">
+        <v>72</v>
+      </c>
+      <c r="O170" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P170" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="171" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M171" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N171" s="18">
-        <v>72</v>
-      </c>
-      <c r="O171" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P171" s="17" t="s">
+      <c r="M171" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N171" s="16">
+        <v>72</v>
+      </c>
+      <c r="O171" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P171" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="172" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M172" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N172" s="18">
-        <v>72</v>
-      </c>
-      <c r="O172" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P172" s="17" t="s">
+      <c r="M172" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N172" s="16">
+        <v>72</v>
+      </c>
+      <c r="O172" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P172" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="173" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M173" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N173" s="18">
-        <v>72</v>
-      </c>
-      <c r="O173" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P173" s="17" t="s">
+      <c r="M173" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N173" s="16">
+        <v>72</v>
+      </c>
+      <c r="O173" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P173" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="174" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M174" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N174" s="18">
-        <v>72</v>
-      </c>
-      <c r="O174" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P174" s="17" t="s">
+      <c r="M174" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N174" s="16">
+        <v>72</v>
+      </c>
+      <c r="O174" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P174" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="175" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M175" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N175" s="18">
-        <v>72</v>
-      </c>
-      <c r="O175" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P175" s="17" t="s">
+      <c r="M175" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N175" s="16">
+        <v>72</v>
+      </c>
+      <c r="O175" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P175" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="176" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M176" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N176" s="18">
-        <v>72</v>
-      </c>
-      <c r="O176" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P176" s="17" t="s">
+      <c r="M176" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N176" s="16">
+        <v>72</v>
+      </c>
+      <c r="O176" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P176" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="177" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M177" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N177" s="18">
-        <v>72</v>
-      </c>
-      <c r="O177" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P177" s="17" t="s">
+      <c r="M177" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N177" s="16">
+        <v>72</v>
+      </c>
+      <c r="O177" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P177" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="178" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M178" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N178" s="18">
-        <v>72</v>
-      </c>
-      <c r="O178" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P178" s="17" t="s">
+      <c r="M178" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N178" s="16">
+        <v>72</v>
+      </c>
+      <c r="O178" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P178" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="179" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M179" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N179" s="18">
-        <v>72</v>
-      </c>
-      <c r="O179" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P179" s="17" t="s">
+      <c r="M179" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N179" s="16">
+        <v>72</v>
+      </c>
+      <c r="O179" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P179" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="180" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M180" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N180" s="18">
-        <v>72</v>
-      </c>
-      <c r="O180" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P180" s="17" t="s">
+      <c r="M180" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N180" s="16">
+        <v>72</v>
+      </c>
+      <c r="O180" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P180" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="181" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M181" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N181" s="18">
-        <v>72</v>
-      </c>
-      <c r="O181" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P181" s="17" t="s">
+      <c r="M181" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N181" s="16">
+        <v>72</v>
+      </c>
+      <c r="O181" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P181" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="182" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M182" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N182" s="18">
-        <v>72</v>
-      </c>
-      <c r="O182" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P182" s="17" t="s">
+      <c r="M182" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N182" s="16">
+        <v>72</v>
+      </c>
+      <c r="O182" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P182" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="183" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M183" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N183" s="18">
-        <v>72</v>
-      </c>
-      <c r="O183" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P183" s="17" t="s">
+      <c r="M183" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N183" s="16">
+        <v>72</v>
+      </c>
+      <c r="O183" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P183" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="184" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M184" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N184" s="18">
-        <v>72</v>
-      </c>
-      <c r="O184" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P184" s="17" t="s">
+      <c r="M184" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N184" s="16">
+        <v>72</v>
+      </c>
+      <c r="O184" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P184" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="185" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M185" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N185" s="18">
-        <v>72</v>
-      </c>
-      <c r="O185" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P185" s="17" t="s">
+      <c r="M185" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N185" s="16">
+        <v>72</v>
+      </c>
+      <c r="O185" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P185" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="186" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M186" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N186" s="18">
-        <v>72</v>
-      </c>
-      <c r="O186" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P186" s="17" t="s">
+      <c r="M186" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N186" s="16">
+        <v>72</v>
+      </c>
+      <c r="O186" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P186" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="187" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M187" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N187" s="18">
-        <v>72</v>
-      </c>
-      <c r="O187" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P187" s="17" t="s">
+      <c r="M187" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N187" s="16">
+        <v>72</v>
+      </c>
+      <c r="O187" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P187" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="188" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M188" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N188" s="18">
-        <v>72</v>
-      </c>
-      <c r="O188" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P188" s="17" t="s">
+      <c r="M188" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N188" s="16">
+        <v>72</v>
+      </c>
+      <c r="O188" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P188" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="189" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M189" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N189" s="18">
-        <v>72</v>
-      </c>
-      <c r="O189" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P189" s="17" t="s">
+      <c r="M189" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N189" s="16">
+        <v>72</v>
+      </c>
+      <c r="O189" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P189" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="190" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M190" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N190" s="18">
-        <v>72</v>
-      </c>
-      <c r="O190" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P190" s="17" t="s">
+      <c r="M190" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N190" s="16">
+        <v>72</v>
+      </c>
+      <c r="O190" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P190" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="191" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M191" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N191" s="18">
-        <v>72</v>
-      </c>
-      <c r="O191" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P191" s="17" t="s">
+      <c r="M191" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N191" s="16">
+        <v>72</v>
+      </c>
+      <c r="O191" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P191" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="192" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M192" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N192" s="18">
-        <v>72</v>
-      </c>
-      <c r="O192" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P192" s="17" t="s">
+      <c r="M192" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N192" s="16">
+        <v>72</v>
+      </c>
+      <c r="O192" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P192" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="193" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M193" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N193" s="18">
-        <v>72</v>
-      </c>
-      <c r="O193" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P193" s="17" t="s">
+      <c r="M193" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N193" s="16">
+        <v>72</v>
+      </c>
+      <c r="O193" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P193" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="194" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M194" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N194" s="18">
-        <v>72</v>
-      </c>
-      <c r="O194" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P194" s="17" t="s">
+      <c r="M194" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N194" s="16">
+        <v>72</v>
+      </c>
+      <c r="O194" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P194" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="195" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M195" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N195" s="18">
-        <v>72</v>
-      </c>
-      <c r="O195" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P195" s="17" t="s">
+      <c r="M195" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N195" s="16">
+        <v>72</v>
+      </c>
+      <c r="O195" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P195" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="196" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M196" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N196" s="18">
-        <v>72</v>
-      </c>
-      <c r="O196" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P196" s="17" t="s">
+      <c r="M196" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N196" s="16">
+        <v>72</v>
+      </c>
+      <c r="O196" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P196" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="197" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M197" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N197" s="18">
-        <v>72</v>
-      </c>
-      <c r="O197" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P197" s="17" t="s">
+      <c r="M197" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N197" s="16">
+        <v>72</v>
+      </c>
+      <c r="O197" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P197" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="198" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M198" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N198" s="18">
-        <v>72</v>
-      </c>
-      <c r="O198" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P198" s="17" t="s">
+      <c r="M198" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N198" s="16">
+        <v>72</v>
+      </c>
+      <c r="O198" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P198" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="199" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M199" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N199" s="18">
-        <v>72</v>
-      </c>
-      <c r="O199" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P199" s="17" t="s">
+      <c r="M199" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N199" s="16">
+        <v>72</v>
+      </c>
+      <c r="O199" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P199" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="200" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M200" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N200" s="18">
-        <v>72</v>
-      </c>
-      <c r="O200" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P200" s="17" t="s">
+      <c r="M200" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N200" s="16">
+        <v>72</v>
+      </c>
+      <c r="O200" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P200" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="201" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M201" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N201" s="18">
-        <v>72</v>
-      </c>
-      <c r="O201" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P201" s="17" t="s">
+      <c r="M201" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N201" s="16">
+        <v>72</v>
+      </c>
+      <c r="O201" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P201" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="202" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M202" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N202" s="18">
-        <v>72</v>
-      </c>
-      <c r="O202" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P202" s="17" t="s">
+      <c r="M202" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N202" s="16">
+        <v>72</v>
+      </c>
+      <c r="O202" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P202" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="203" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M203" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N203" s="18">
-        <v>72</v>
-      </c>
-      <c r="O203" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P203" s="17" t="s">
+      <c r="M203" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N203" s="16">
+        <v>72</v>
+      </c>
+      <c r="O203" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P203" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="204" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M204" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N204" s="18">
-        <v>72</v>
-      </c>
-      <c r="O204" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P204" s="17" t="s">
+      <c r="M204" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N204" s="16">
+        <v>72</v>
+      </c>
+      <c r="O204" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P204" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="205" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M205" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N205" s="18">
-        <v>72</v>
-      </c>
-      <c r="O205" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P205" s="17" t="s">
+      <c r="M205" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N205" s="16">
+        <v>72</v>
+      </c>
+      <c r="O205" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P205" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="206" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M206" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N206" s="18">
-        <v>72</v>
-      </c>
-      <c r="O206" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P206" s="17" t="s">
+      <c r="M206" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N206" s="16">
+        <v>72</v>
+      </c>
+      <c r="O206" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P206" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="207" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M207" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N207" s="18">
-        <v>72</v>
-      </c>
-      <c r="O207" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P207" s="17" t="s">
+      <c r="M207" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N207" s="16">
+        <v>72</v>
+      </c>
+      <c r="O207" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P207" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="208" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M208" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N208" s="18">
-        <v>72</v>
-      </c>
-      <c r="O208" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P208" s="17" t="s">
+      <c r="M208" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N208" s="16">
+        <v>72</v>
+      </c>
+      <c r="O208" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P208" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="209" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M209" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N209" s="18">
-        <v>72</v>
-      </c>
-      <c r="O209" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P209" s="17" t="s">
+      <c r="M209" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N209" s="16">
+        <v>72</v>
+      </c>
+      <c r="O209" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P209" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="210" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M210" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N210" s="18">
-        <v>72</v>
-      </c>
-      <c r="O210" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P210" s="17" t="s">
+      <c r="M210" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N210" s="16">
+        <v>72</v>
+      </c>
+      <c r="O210" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P210" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="211" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M211" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N211" s="18">
-        <v>72</v>
-      </c>
-      <c r="O211" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P211" s="17" t="s">
+      <c r="M211" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N211" s="16">
+        <v>72</v>
+      </c>
+      <c r="O211" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P211" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="212" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M212" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N212" s="18">
-        <v>72</v>
-      </c>
-      <c r="O212" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P212" s="17" t="s">
+      <c r="M212" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N212" s="16">
+        <v>72</v>
+      </c>
+      <c r="O212" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P212" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="213" spans="13:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="M213" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N213" s="18">
-        <v>72</v>
-      </c>
-      <c r="O213" s="19">
-        <v>44265</v>
-      </c>
-      <c r="P213" s="17" t="s">
+      <c r="M213" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N213" s="16">
+        <v>72</v>
+      </c>
+      <c r="O213" s="17">
+        <v>44265</v>
+      </c>
+      <c r="P213" s="15" t="s">
         <v>22</v>
       </c>
     </row>

--- a/607.xlsx
+++ b/607.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE3C1E-DCA3-4F10-9E25-8E84F9B27AC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D306EF2-0196-4819-8660-5AB63CD9C6BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
+    <workbookView minimized="1" xWindow="30" yWindow="15" windowWidth="15330" windowHeight="10890" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="50">
   <si>
     <t>Discussion</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>chap 7</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
   <si>
     <t xml:space="preserve">ci = </t>
@@ -1305,7 +1302,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="N6" s="24" t="s">
         <v>8</v>
@@ -1805,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1867,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="N17" s="28" t="s">
         <v>7</v>
@@ -1917,7 +1914,7 @@
         <v>7</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31" t="s">
         <v>7</v>
@@ -1934,7 +1931,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -1993,7 +1990,7 @@
         <v>1.7745800000000003</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">

--- a/607.xlsx
+++ b/607.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D306EF2-0196-4819-8660-5AB63CD9C6BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873F956-F66A-4FC1-9F7D-5A6EAACFB960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30" yWindow="15" windowWidth="15330" windowHeight="10890" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15375" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1302,7 +1303,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1663,7 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="2"/>
@@ -2184,6 +2185,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE3434E-E059-4241-AA89-6FDB9F604377}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0642B65-4EFD-4164-B565-05245B5B3B32}">
   <dimension ref="F5:Y26"/>
   <sheetViews>
@@ -2410,7 +2425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2A3AD9-15BE-4636-B184-E969B500805C}">
   <dimension ref="M1:P214"/>
   <sheetViews>
@@ -5416,7 +5431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CA07CE-0EA4-460B-AF4D-EED73C25E86B}">
   <dimension ref="D1:O15"/>
   <sheetViews>

--- a/607.xlsx
+++ b/607.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873F956-F66A-4FC1-9F7D-5A6EAACFB960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD1AAC-4431-4DEA-907D-21071548851D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15375" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{6D95BD7B-F5E4-491E-9063-4A081FA8002E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1303,7 +1303,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>8</v>
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O6" s="24" t="s">
         <v>7</v>
@@ -1776,7 +1776,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="13" t="s">
